--- a/ioa_data.xlsx
+++ b/ioa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89ACBD-43AB-F443-9CA7-593485B44A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DB975-F7FC-0248-AB90-FE2E76C36192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,9 +2363,6 @@
     <t>image2.png</t>
   </si>
   <si>
-    <t>image3.png</t>
-  </si>
-  <si>
     <t>image4.png</t>
   </si>
   <si>
@@ -2378,10 +2375,13 @@
     <t>image7.png</t>
   </si>
   <si>
-    <t>image8.png</t>
-  </si>
-  <si>
     <t>image9.png</t>
+  </si>
+  <si>
+    <t>image11.png</t>
+  </si>
+  <si>
+    <t>image13.png</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2766,7 +2766,7 @@
   <dimension ref="A1:BF10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BH10" sqref="BH10"/>
+      <selection activeCell="BI6" sqref="BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ioa_data.xlsx
+++ b/ioa_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DB975-F7FC-0248-AB90-FE2E76C36192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C4F12-B615-F34D-8CFB-D958786F3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22360" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="420">
   <si>
     <t>ioa_title</t>
   </si>
@@ -260,7 +260,7 @@
     <t>Medium intensity confict: while security has improved thanks to Kenya-Uganda coordination and cross-border dialogues, sporadic violence involving pastoralist groups persists, especially in remote areas. (3, 4, 8, 9, 10)</t>
   </si>
   <si>
-    <t>Underdeveloped Regional Integration Infrastructure: despite recent investments in roads and trade facilitation initiatives under regional economic frameworks like EAC and COMESA, poor rural connectivity, weak enforcement of trade policies, and logistical barriers continue to hinder market access, formal trade, and cross-border economic integration, forcing many traders into the informal sector. (5, 6, 7)</t>
+    <t>Underdeveloped Regional Integration Infrastructure: despite recent investments in roads and trade facilitation initiatives under regional economic frameworks (e.g. EAC, COMESA), poor rural connectivity, weak enforcement of trade policies, and logistical barriers continue to hinder market access, formal trade, and cross-border economic integration, forcing many traders into the informal sector. (5, 6, 7)</t>
   </si>
   <si>
     <t>Type 3: Borderland with fragile context and underdeveloped regional integration infrastructure</t>
@@ -279,31 +279,31 @@
   </si>
   <si>
     <t>Borderland development need: Agriculture is vital to the borderland, where over 80% of the population depends on farming and livestock. Yet, productivity remains low due to erratic rainfall, limited inputs, and poor market access. The region hosts over 5 million livestock, but most is sold raw or transported long distances, missing value-add opportunities. Frequent droughts and post-harvest losses worsen food insecurity, highlighting urgent needs for investment in resilient, market-linked agriculture. (1, 2, 11, 12, 13)
-Borderland policy priority: Boosting food security, livestock productivity, and agro-processing is a shared policy priority in West Pokot’s CIDP and Uganda’s KIDP3. Both strategies emphasize value addition, market access, and climate-smart agriculture to build resilience. These priorities mirror national plans, Kenya’s Agricultural Sector Transformation and Growth Strategy (ASTGS) and Uganda’s National Agriculture Policy (NAP), both of which aim to modernize agriculture and transform smallholder livelihoods. (1, 2, 14, 15)
+Borderland policy priority: Boosting food security, livestock productivity, and agro-processing is a shared policy priority in West Pokot’s County Integrated Development Plan (CIDP) and Karamoja's Integrated Development Plan 3 (KIDP3). Both strategies emphasize value addition, market access, and climate-smart agriculture to build resilience. These priorities mirror national plans, Kenya’s Agricultural Sector Transformation and Growth Strategy (ASTGS) and Uganda’s National Agriculture Policy (NAP), both of which aim to modernize agriculture and transform smallholder livelihoods. (1, 2, 14, 15)
 Gender inequalities and marginalization issues: Agriculture offers inclusive economic opportunities for women and marginalized groups who are heavily engaged in farming, livestock care, and informal trade across the borderland. Expanding access to inputs, training, and markets—especially in value chains like dairy, honey, and poultry—can boost incomes, enhance resilience, and promote gender equity in a region with limited formal employment. (6, 16, 17)
 Investment opportunities introduction: The agriculture sector offers significant investment potential in irrigation infrastructure, agro-processing, livestock value chains, and climate-smart farming. Expanding storage facilities, strengthening veterinary services, and establishing market linkages can drive economic transformation and improve livelihoods in the borderland. (1, 2, 18)
 Key bottlenecks introduction: Agricultural expansion is constrained by poor infrastructure, weak market access, climate shocks, and low adoption of improved practices. Inadequate processing facilities, limited access to finance, and inconsistent cross-border policies further restrict sectoral growth, requiring targeted interventions to unlock its full potential. (12, 18, 19)</t>
   </si>
   <si>
-    <t>Borderland development need: The services sector in the borderland is underdeveloped despite strong potential to drive economic growth. Informal trade dominates, yet structural barriers—poor infrastructure, limited financial access, and weak regulatory alignment—impede formalization and expansion. Cross-border commerce is vital to livelihoods but lacks the systems and institutions needed to thrive. Meanwhile, tourism remains largely untapped due to security concerns, poor accessibility, and minimal investment in hospitality services. Strengthening market infrastructure, financial inclusion, and business support services is essential to unlock the sector’s transformative potential. (3, 4)
-Borderland policy priority: The borderland prioritizes services-led growth through trade, financial inclusion, cooperative development, and tourism. West Pokot’s CIDP supports market infrastructure, access to finance, and agro-processing to boost entrepreneurship and regional commerce. Karamoja’s KIDP3 emphasizes financial services, modernized livestock markets, and digital platforms to strengthen trade. Both plans promote tourism by enhancing cultural and eco-tourism offerings, improving infrastructure, and expanding hospitality services to attract investment and create jobs. (1, 2)
+    <t>Borderland development need: While the services sector represents more than 40% of the GDP in Kenya and Uganda, it remains underdeveloped in the borderland despite strong potential to drive economic growth. Informal trade dominates, yet poor infrastructure, limited financial access, and weak regulatory alignment impede formalization and expansion. Cross-border commerce is vital to livelihoods but lacks the systems and institutions needed to thrive. Strengthening market infrastructure, financial inclusion, and business support services is essential to unlock the sector’s transformative potential. (3, 4, 45)
+Borderland policy priority: The borderland prioritizes services-led growth through trade, financial inclusion, cooperative development, and tourism. West Pokot’s County Integrated Development Plan (CIDP) supports market infrastructure, access to finance, and agro-processing to boost entrepreneurship and regional commerce, while Karamoja’s Integrated Development Plan (KIDP3) emphasizes financial services, modernized livestock markets, and digital platforms to strengthen trade. (1, 2)
 Gender inequalities and marginalization issues: Women and youth in the borderland face barriers to entering formal services due to limited access to credit, skills training, and market information. Most women traders operate informally, exposing them to risks and reducing their earning potential. Cultural norms and low financial literacy further marginalize these groups, limiting their ability to benefit from cross-border trade, tourism, and cooperative structures despite their strong presence in these sectors. (3, 4, 6)
-Investment opportunities introduction: The services sector offers diverse investment prospects across trade, finance, and tourism. Retail market upgrades, digital financial services, and cross-border logistics can boost trade efficiency. There’s high potential for growth in hospitality and eco-tourism, with untapped natural and cultural assets in Karamoja and West Pokot. Expanding SACCOs and fintech solutions can unlock credit for informal traders and cooperatives, enabling scale and diversification. (1, 2, 3, 4)
-Key bottlenecks introduction: Structural challenges such as poor transport infrastructure, fragmented market systems, and inadequate financial services limit the services sector’s potential. Informal traders face high transaction costs and limited working capital. In tourism, poor road access and insecurity deter visitors. Regulatory inconsistencies and weak coordination between Uganda and Kenya constrain cross-border trade, while limited investor confidence slows sector development. (1, 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>Borderland development need: Limited access to financial services is a core constraint to inclusive growth in the borderland. National data show that only 58% of Ugandans and 83% of Kenyans have access to formal financial services, but rates are much lower in marginalized regions. Many small traders, farmers, and youth operate entirely outside the banking system, relying on home savings or informal lenders. This lack of access to credit, insurance, and savings prevents investment in business expansion, reduces resilience to shocks, and reinforces poverty cycles. Improving financial inclusion is foundational to unlocking the borderland’s economic potential. (7, 9, 12, 18)
-Borderland policy priority: Expanding financial access is a shared policy priority in both Karamoja and West Pokot. Uganda’s KIDP3 emphasizes financial literacy, strengthening SACCOs and VSLAs, and connecting farmers to formal financial services. Kenya’s CIDP promotes affordable credit through cooperative development and funds like Biashara Mashinani. Both strategies aim to boost entrepreneurship, agricultural investment, and resilience, with a strong focus on cooperatives as vehicles for local empowerment. These policy signals provide strong alignment and public support for investment in financial sector development. (1, 2)
-Gender inequalities and marginalization issues: Women and youth are disproportionately excluded from formal finance due to lack of collateral, literacy barriers, and mobility constraints. Many save at home or rely on VSLAs, highlighting unmet demand for tailored, accessible financial products to address structural exclusion. (16, 17)
+Investment opportunities introduction: Retail market upgrades, digital financial services, and cross-border logistics can boost trade efficiency. There’s high potential for growth in hospitality and eco-tourism, with untapped natural and cultural assets in Karamoja and West Pokot. Expanding SACCOs and fintech solutions can unlock credit for informal traders and cooperatives, enabling scale and diversification. (1, 2, 3, 4)
+Key bottlenecks introduction: Poor transport infrastructure, fragmented market systems, and inadequate financial services limit the services sector’s potential. Informal traders face high transaction costs and limited working capital. Regulatory inconsistencies and weak coordination between Uganda and Kenya constrain cross-border trade, while limited investor confidence slows sector development. (1, 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>Borderland development need: National data show that only 58% of Ugandans and 83% of Kenyans have access to formal financial services, but rates are much lower in marginalized regions. In West Pokot, only 5.4% of farmers have access to formal finance for agriculture, as many small traders, farmers, and youth operate entirely outside the banking system, relying on home savings or informal lenders. This lack of access to credit, insurance, and savings prevents investment in business expansion, reduces resilience to shocks, and reinforces poverty cycles. Improving financial inclusion is foundational to unlocking the borderland’s economic potential. (7, 9, 12, 13)
+Borderland policy priority: Expanding financial access is a shared policy priority across the border: the Karamoja Integrated Development Plan (KIDP3) supports scaling up financial literacy, strengthening SACCOs and VSLAs, and connecting farmers to formal financial services, while the West Pokot County Integrated Development Plan (CIDP) promotes affordable credit through cooperative development. Both strategies aim to boost entrepreneurship, agricultural investment, and resilience, with a strong focus on cooperatives as vehicles for local empowerment. (1, 2)
+Gender inequalities and marginalization issues: In 2022, 52% of women had access to formal finance, and 35.5% could only access informal finance. Across the borderland, women, youth, and other marginalized groups face systemic barriers to accessing financial services. These include lack of formal identification, limited financial literacy, and social norms that restrict mobility and decision-making power. As a result, many are excluded from formal financial systems and depend instead on informal mechanisms such as village savings and loan associations (VSLAs) or saving at home. (13, 16, 17)
 Investment opportunities introduction: Emerging opportunities include digital financial services, mobile money expansion, SACCO scaling, and tailored SME financial products. Growing demand for agriculture and clean energy finance presents entry points for impact-driven investors and fintech innovators. (12, 14, 15)
 Key bottlenecks introduction: High collateral demands, limited rural outreach, lack of tailored products, and weak financial literacy constrain both demand and supply. Formal lenders struggle with risk perceptions, while cooperatives lack capitalization and systems to scale their services sustainably. (11, 12, 14, 15)</t>
   </si>
   <si>
-    <t>Borderland development need: Access to reliable energy remains critically low across the borderland. In Karamoja, grid electricity reaches only about 1% of households, while in West Pokot, access remains limited and often dependent on costly diesel generators. Power outages in urban centers like Moroto further disrupt businesses, schools, and healthcare facilities. This chronic energy deficit constrains industrial growth, weakens service delivery, and limits livelihood diversification across the region. (11, 12, 13)
-Borderland policy priority: The CIDP for West Pokot and the KIDP3 for Karamoja both prioritize expanding renewable energy access to support socio-economic development. West Pokot plans to establish a County Energy Centre, develop energy regulations, and promote clean cooking. Karamoja emphasizes solar grid integration, rural electrification, and access to energy for institutions. Both regions aim to reduce biomass reliance, improve service delivery, and promote sustainable energy use. (1, 2)
-Gender inequalities and marginalization issues: Women and youth in the borderland disproportionately lack access to clean energy due to poverty, limited land ownership, and exclusion from decision-making. Women, in particular, bear the health burden of indoor air pollution from firewood and charcoal. Energy access remains low in female-headed households, reducing opportunities for income-generating activities and reinforcing gender disparities.
-Investment opportunities introduction: The region presents strong opportunities for mini-grids, solar home systems, clean cooking, and hybrid renewable solutions targeting underserved rural communities. Public facilities and businesses urgently need reliable energy. Demand is growing due to government electrification efforts and private sector interest in decentralized renewable energy.
-High initial costs, limited distribution infrastructure, and poor financing mechanisms restrict adoption of renewable energy. Knowledge gaps in system maintenance and weak coordination between stakeholders further impede scale. Energy policies remain fragmented and poorly implemented at local levels.</t>
+    <t>Borderland development need: Access to reliable energy remains critically low across the borderland. In Karamoja, grid electricity reaches only about 1% of households, while in West Pokot, access remains limited and often dependent on costly diesel generators. Power outages in urban centers like Moroto and Amudat further disrupt businesses, schools, and healthcare facilities. This chronic energy deficit constrains industrial growth, weakens service delivery, and limits livelihood diversification across the region. (11, 12, 13)
+Borderland policy priority: The County Integrated Development Plan (CIDP) for West Pokot and the Karamoja Integrated Development Plan (KIDP3)  both prioritize expanding renewable energy access to support socio-economic development. West Pokot plans to establish a County Energy Centre, develop energy regulations, and promote clean cooking, while Karamoja's plan emphasizes solar grid integration, rural electrification, and access to energy for institutions. Nationally, the government of Uganda had planned to increase access to energy from 21% to 60% by 2025, while Kenya’s National Electrification Strategy aims at creating around 2 million new connections using Solar House Systems and mini-grid solutions. (1, 2, 48, 49)
+Gender inequalities and marginalization issues: Women and youth in the borderland lack access to clean energy due to poverty, limited land ownership, and exclusion from decision-making. Women, in particular, bear the health burden of indoor air pollution from firewood and charcoal. (11, 12, 17)
+Investment opportunities introduction: The borderland faces low rural electrification and rising demand in both Kenya and Uganda. Kenya aims for 2M new off-grid connections, requiring USD 2.8B in investment, while Uganda targets 60% access by 2025. With demand growing 10–13% annually and over 20M people still off-grid, decentralized renewable solutions (such as SHS and mini-grids) offer scalable, high-impact investment opportunities. (48, 49, 50)
+High initial costs, limited distribution infrastructure, and poor financing mechanisms restrict adoption of renewable energy. Knowledge gaps in system maintenance and weak coordination between stakeholders further impede scale. Energy policies remain fragmented and poorly implemented at local levels. (11, 12)</t>
   </si>
   <si>
     <t>FB.1 Food and Agriculture</t>
@@ -318,22 +318,29 @@
     <t>RR.1 Alternative Energy</t>
   </si>
   <si>
-    <t>Borderland development need: Crop production, including staple and high-value horticultural crops, is a crucial component of the borderland economy, yet 45% of households in Karamoja face high levels of acute food insecurity. Poor irrigation,climate vulnerability, weak input supply chains, and limited agro-processing capacity lead to low yields and 30-40% post-harvest losses. (19, 20, 21)
+    <t>Borderland development need: Crop production, including staple and high-value horticultural crops, is a crucial component of the borderland economy with 45,000 tons produced in West Pokot only in 2023.  Yet 45% of households in the borderland face high levels of acute food insecurity. Poor irrigation,climate vulnerability, weak input supply chains, and limited agro-processing capacity lead to low yields and 30-40% post-harvest losses. (19, 20, 21, 57)
 Borderland policy priority: The KIDP3 and CIDP prioritize food security by promoting climate-smart agriculture, irrigation expansion, and agro-processing. Investments in post-harvest management, contract farming, and value addition aim to strengthen supply chains and reduce losses, enhancing local food production and processing capacity. (1, 2)
-Gender inequalities and marginalization issues: Women in food production and processing face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17)
+Gender inequalities and marginalization issues: Women constitute almost 80% of agricultural workers in the region, yet they face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17, 58)
 Investment opportunities introduction: Expanding food production and processing offers high potential for investment in irrigation, agro-processing plants, and cold storage facilities. Supporting contract farming, market linkages, and climate-smart inputs will reduce post-harvest losses, increase local value addition, and create new economic opportunities in the borderland. (17, 18, 19)
 Key bottlenecks introduction: Limited irrigation, weak input supply chains, and poor storage infrastructure hinder food production, while inadequate processing facilities result in high post-harvest losses. Weak market access and fragmented trade networks further limit value addition, making targeted investments in supply chains and agro-industrialization crucial for sectoral growth. (1, 2, 20, 22)</t>
   </si>
   <si>
     <t>Borderland development need: Livestock is the main source of livelihood in the borderland, with over 5 million head of cattle, goats, sheep, and camels. However, drought, disease, and poor veterinary services lead to high mortality and low productivity. Most animals are sold live, with minimal local processing, limiting income and adding costs. Insecurity and weak infrastructure further disrupt markets. With 45% of the population facing acute food insecurity, improving livestock systems is critical to resilience and economic growth. (11, 20, 21, 22)
-Borderland policy priority: Both CIDP and KIDP3 prioritize livestock as a driver of resilience, food security, and economic growth. West Pokot County focuses on breed improvement, feed reserves, and operationalizing processing facilities such as the Nasukuta abattoir to retain value locally. Karamoja's plan prioritises breeding, disease surveillance, and value addition in meat, milk, and hides. Both plans aim to improve market access, veterinary services, and cross-border trade, especially for youth and women in pastoral systems. (1, 2)
+Borderland policy priority: Both CIDP and KIDP3 highlight livestock as a driver of resilience, food security, and economic growth. In West Pokot, the County plan focuses on breed improvement, feed reserves, and operationalizing processing facilities such as the Nasukuta abattoir to retain value locally. In Karamoja, the local government prioritises breeding, disease surveillance, and value addition in meat, milk, and hides. Both aim to improve market access, veterinary services, and cross-border trade, especially for youth and women in pastoral systems. (1, 2)
 Gender inequalities and marginalization issues: Livestock production and processing offer key entry points for empowering women and marginalized groups, who often manage small ruminants and poultry. These activities generate income, support food security, and are more accessible to those with limited land or capital. Expanding value chains and services tailored to women and youth can drive inclusion and build resilience. (12, 13)
 Investment opportunities introduction: The borderland offers high-return investment opportunities in livestock production and processing, from meat and dairy value chains to animal health and feed systems. With strong local demand, large herd sizes, and policy backing, investments in abattoirs, milk processing, vet services, and feed supply can unlock value, boost incomes, and strengthen regional trade. (1, 2)
-Key bottlenecks introduction: Recurrent droughts and disease outbreaks weaken productivity, while limited access to quality feed and vet services constrains herd health. Insecurity—driven by cattle raiding, border tensions, and weak enforcement—disrupts markets and discourages investment. Poor infrastructure and low processing capacity further limit value addition. (1, 2, 9, 12)</t>
-  </si>
-  <si>
-    <t>Borderland development need:Tourism in the borderland holds high potential but remains largely untapped due to poor infrastructure, limited accessibility, and insecurity perceptions. Key attractions like Kidepo Valley National Park and the Cherangany Hills lack adequate road and air access, discouraging high-end and adventure tourism. The sector is also constrained by scarce accommodation, stalled public investments, and weak marketing strategies. Additionally, limited community engagement and past exclusion from benefits hinder local support for tourism, requiring more inclusive, locally driven approaches to ensure sustainability and regional growth. (11, 12, 13)
-Borderland policy priority: West Pokot and Karamoja prioritize tourism as a pathway to economic growth, cultural preservation, and community empowerment. West Pokot focuses on building tourism infrastructure, promoting wildlife conservation, and branding the county as a sustainable tourism hub. Karamoja’s KIDP3 emphasizes community-based and nature tourism, investing in cultural sites, guiding skills, and cross-border tourism circuits. Both regions aim to improve accessibility, promote cultural events, and ensure local participation in tourism value chains. (1, 2)
+Key bottlenecks introduction: Recurrent droughts and disease outbreaks weaken productivity, while limited access to quality feed and vet services constrains herd health. Insecurity (driven by cattle raiding, border tensions, and weak enforcement) disrupts markets and discourages investment. Poor infrastructure and low processing capacity further limit value addition. (1, 2, 9, 12)</t>
+  </si>
+  <si>
+    <t>Borderland development need: Crop production, including staple and high-value horticultural crops, is a crucial component of the borderland economy with 45,000 tons produced in West Pokot only in 2023.  Yet 45% of households in the borderland face high levels of acute food insecurity. Poor irrigation,climate vulnerability, weak input supply chains, and limited agro-processing capacity lead to low yields and 30-40% post-harvest losses. (19, 20, 21, 53)
+Borderland policy priority: The KIDP3 and CIDP prioritize food security by promoting climate-smart agriculture, irrigation expansion, and agro-processing. Investments in post-harvest management, contract farming, and value addition aim to strengthen supply chains and reduce losses, enhancing local food production and processing capacity. (1, 2)
+Gender inequalities and marginalization issues: Women constitute almost 80% of agricultural workers in the region, yet they face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17, 54)
+Investment opportunities introduction: Expanding food production and processing offers high potential for investment in irrigation, agro-processing plants, and cold storage facilities. Supporting contract farming, market linkages, and climate-smart inputs will reduce post-harvest losses, increase local value addition, and create new economic opportunities in the borderland. (17, 18, 19)
+Key bottlenecks introduction: Limited irrigation, weak input supply chains, and poor storage infrastructure hinder food production, while inadequate processing facilities result in high post-harvest losses. Weak market access and fragmented trade networks further limit value addition, making targeted investments in supply chains and agro-industrialization crucial for sectoral growth. (1, 2, 20, 22)</t>
+  </si>
+  <si>
+    <t>Borderland development need: Tourism in the borderland holds high potential but remains largely untapped due to poor infrastructure, limited accessibility, and insecurity perceptions. Key attractions like Kidepo Valley National Park and the Cherangany Hills lack adequate road and air access, discouraging high-end and adventure tourism. The sector is also constrained by scarce accommodation, stalled public investments, and weak marketing strategies. Limited community engagement and past exclusion from benefits also hinder local support for tourism, requiring more inclusive, locally driven approaches to ensure sustainability and regional growth. (11, 12, 13)
+Borderland policy priority: West Pokot and Karamoja prioritize tourism as a pathway to economic growth, cultural preservation, and community empowerment. The CIDP focuses on building tourism infrastructure, promoting wildlife conservation, and branding the county as a sustainable tourism hub, while Karamoja’s KIDP3 emphasizes community-based and nature tourism, investing in cultural sites, guiding skills, and cross-border tourism circuits. Both regions aim to improve accessibility, promote cultural events, and ensure local participation in tourism value chains. (1, 2)
 Gender inequalities and marginalization issues: Women, youth, and indigenous communities remain underrepresented in the tourism workforce due to limited skills training, lack of access to capital, and exclusion from decision-making. Cultural norms and safety concerns also limit women’s participation in guiding, management, and enterprise ownership. 11, 12) 
 Investment opportunities introduction: Tourism offers strong opportunities in the borderland, including eco-lodges near Kidepo and Nasolot, cultural tourism experiences, and adventure tourism (e.g., hiking, cycling). Demand is growing for unique, remote destinations, and investment in accommodation, marketing, and transport circuits can unlock high-value tourism. (11, 12)
 Key bottlenecks introduction: Underdeveloped infrastructure, including poor road access and limited air connectivity, restricts tourist flow to key attractions. Perceptions of insecurity, lack of hospitality services, and weak branding and marketing further constrain tourism growth, deterring private investment and visitor confidence. (11, 12, 13)</t>
@@ -341,16 +348,16 @@
   <si>
     <t>Borderland development need: Small traders, farmers, and cooperatives across the borderland operate largely outside the formal financial system, relying on home savings, VSLAs, or high-cost informal lenders. As of 2016/17, 27% of households in Karamoja could not save with any financial institution, and only 28% owned a mobile phone. Despite vibrant local trade and entrepreneurial activity—over 40% of households report having an enterprise—access to affordable credit and banking services remains a key constraint. This stifles productivity, weakens resilience, and limits business growth, particularly for youth- and women-led enterprises. (1, 2)
 Borderland policy priority: Both Karamoja's KIDP3 and West Pokot's CIDP emphasize financial inclusion, enterprise development, and strengthening cooperatives. They identify tailored credit as key to unlocking inclusive growth and supporting local enterprise participation in trade and value chains. Nationally, Kenya Vision 2030 emphasizes inclusive finance, mobile banking, and cooperative development. Similarly, Uganda’s National Financial Inclusion Strategy (2017–2022) aims to reduce financial exclusion through support to SACCOs, mobile financial services, and low-cost savings and credit products tailored to underserved populations. These priorities converge on enabling accessible, affordable finance for rural enterprise growth and resilience. (1, 2, 18, 19, 20)
-Gender inequalities and marginalization issues: Women and youth are disproportionately excluded due to lack of collateral, literacy gaps, and limited access to formal banking. Many rely on VSLAs or save at home, indicating unmet demand. Tailored retail banking products—especially mobile-based—can address structural exclusion and unlock entrepreneurial potential for marginalized groups. (16, 17)
-Investment opportunities introduction: High-potential investments include SACCO capitalisation, mobile and agent banking expansion, cross-border credit products, and tailored SME financing. Digital financial services targeting cooperatives, women-led businesses, and youth entrepreneurs can fill existing gaps in savings, lending, and payment services.
-Key bottlenecks introduction: Major barriers include high interest rates, long processing times, stringent collateral requirements, and underdeveloped digital infrastructure. Banks perceive the region as high-risk and under-served. Limited financial literacy and low mobile phone ownership further constrain uptake of available products and services. (12, 14, 19)</t>
-  </si>
-  <si>
-    <t>Borderland development need: Frequent outages and limited grid connectivity impede productive use of electricity for enterprises. In West Pokot, cooperatives report power cuts up to six times a week, increasing reliance on diesel generators and raising costs by as much as 300 USD monthly. These challenges restrict milk processing, cold storage, irrigation, and small manufacturing. Despite high solar potential, uptake remains low due to high upfront costs, limited infrastructure, and weak financing mechanisms. The inability to power rural businesses sustainably constrains job creation and local value addition.
+Gender inequalities and marginalization issues: Exclusion is often reinforced by collateral requirements, rigid KYC procedures, and products that do not reflect the needs or behaviors of underserved groups. Women and youth—especially those engaged in small-scale cross-border trade or informal enterprises—struggle to access loans, open accounts, or build credit histories. Expanding agent networks, mobile-based savings and credit products, and alternative credit scoring models are key to unlocking financial access and building pathways toward economic inclusion for these groups.. (16, 17)
+Investment opportunities introduction: High-potential investments include SACCO capitalisation, mobile and agent banking expansion, cross-border credit products, and tailored SME financing. Digital financial services targeting cooperatives, women-led businesses, and youth entrepreneurs can fill existing gaps in savings, lending, and payment services. (12, 14, 15)
+Key bottlenecks introduction: Major barriers include high interest rates, long processing times, stringent collateral requirements, and underdeveloped digital infrastructure. Banks perceive the region as high-risk and under-served: there are only four commercial banks on each side of the borderland, and around 1.4 mobile agent for 1,000 people.  Limited financial literacy and low mobile phone ownership further constrain uptake of available products and services. (12, 13, 14, 19)</t>
+  </si>
+  <si>
+    <t>Borderland development need: Frequent outages and limited grid connectivity impede productive use of electricity for enterprises. In West Pokot, cooperatives report power cuts up to six times a week, increasing reliance on diesel generators and raising costs by as much as 300 USD monthly. These challenges restrict milk processing, cold storage, irrigation, and small manufacturing. Despite high solar potential, uptake remains low due to high upfront costs, limited infrastructure, and weak financing mechanisms. The inability to power rural businesses sustainably constrains job creation and local value addition. (18, 21)
 Borderland policy priority: Karamoja’s KIDP3 promotes solar stations, mini solar water systems, and repairs to existing solar installations. It also supports biogas for cooking and lighting. West Pokot’s CIDP highlights solar tech innovation, clean jiko distribution, and technology transfer for sustainable off-grid energy. Both plans support awareness campaigns and training to accelerate adoption of solar and biogas solutions across public and private use cases. (1, 2)
-Gender inequalities and marginalization issues: Women-led enterprises and agro-pastoral households struggle to adopt solar and biogas systems due to high upfront costs and limited financial tools tailored to their needs. Women's role in managing household energy is high, yet they remain underrepresented in energy project planning and technical training. Expanding access requires inclusive design and gender-sensitive financing mechanisms.
-Investment opportunities introduction: High solar irradiation creates favorable conditions for off-grid solar powering cold storage, irrigation, and dairy processing. Biogas has strong potential in agro-pastoral areas where animal waste is readily available. Investment in productive energy use can unlock SME growth, improve food preservation, and reduce fuelwood dependency.
-Adoption of solar for productive use and biogas is limited by lack of affordable credit, insufficient technical capacity, and low awareness among end users. Most SMEs lack working capital for energy investments, and few service providers operate in remote borderland areas. Maintenance and after-sales services are also limited.</t>
+Gender inequalities and marginalization issues: Women-led enterprises and agro-pastoral households struggle to adopt solar and biogas systems due to high upfront costs and limited financial tools tailored to their needs. Women's role in managing household energy is high, yet they remain underrepresented in energy project planning and technical training. Expanding access requires inclusive design and gender-sensitive financing mechanisms. (11, 12, 17)
+Investment opportunities introduction: High solar irradiation creates favorable conditions for off-grid solar powering cold storage, irrigation, and dairy processing. Biogas has strong potential in agro-pastoral areas where animal waste is readily available. Investment in productive energy use can unlock SME growth, improve food preservation, and reduce fuelwood dependency. (11, 12)
+Adoption of solar for productive use and biogas is limited by lack of affordable credit, insufficient technical capacity, and low awareness among end users. Most SMEs lack working capital for energy investments, and few service providers operate in remote borderland areas. Maintenance and after-sales services are also limited. (11, 12)</t>
   </si>
   <si>
     <t>FB-PF Processed Foods</t>
@@ -458,7 +465,8 @@
     <t>With an estimated 550MT of honey produced annually in West Pokot and Karamoja and a premium processed price of $10/kg, the market is valued at $5.5M. Strong local and export demand, diverse floral sources, and existing producer groups like Cabesi and Kara-Tunga support this volume, with further growth possible through aggregation and processing. (28)</t>
   </si>
   <si>
-    <t>The Karamoja–West Pokot region offers rich cultural and ecological assets ideal for cross-border tourism. With growing demand for authentic rural experiences in Kenya and Uganda, even modest development could attract 1,000–3,000 tourists per site annually, generating $50,000–$200,000 in direct revenue. (20)</t>
+    <t>Nationally, tourism contributes 9% to Kenyan GDP, annual earnings from tourism reached USD 1.6 billion in 2018 in Uganda, and numbers of tourists have been steadily increasing in both countries. 
+The Karamoja–West Pokot region offers rich cultural and ecological assets ideal for cross-border tourism. With growing demand for authentic rural experiences in Kenya and Uganda, even modest development could attract 1,000–3,000 tourists per site annually, generating $50,000–$200,000 in direct revenue. (1, 3, 20, 49)</t>
   </si>
   <si>
     <t>Lelan Cooperative alone collected 3.9M liters of milk in 2023, with Sioyi adding 306K liters. Other cooperatives and untapped potential in Karamoja suggest a local supply exceeding 5M liters/year. With improved cold chain and processing capacity, demand from urban markets, schools, and institutions can be unlocked, significantly increasing the market size. (27, 30)</t>
@@ -491,7 +499,7 @@
     <t>Beekeeping has low input costs and high value-add potential. Processed honey can sell for double the raw price, generating strong margins. Even after factoring in security and logistics risks, ROI remains attractive at 25–30%. Baseline profitability can reach 55% with organized aggregation, processing, and access to premium markets. (28)</t>
   </si>
   <si>
-    <t>Comparable community tourism projects in East Africa report 15–25% ROI over 3–5 years. Revenue sources like eco-lodges, tours, crafts, and cultural events stabilize once visitor numbers grow, especially when integrated into national tourism circuits and supported by trained local staff. (20)</t>
+    <t>Comparable community tourism projects in East Africa report 15–25% ROI over 3–5 years. Revenue sources like eco-lodges, tours, crafts, and cultural events stabilize once visitor numbers grow, especially when integrated into national tourism circuits and supported by trained local staff. (20, 50)</t>
   </si>
   <si>
     <t>Value-added dairy products like yogurt and UHT milk generate 30–50% profit margins. Using locally sourced milk lowers costs, and processing reduces post-harvest losses. With demand rising in urban and institutional markets, and examples like Lelan demonstrating strong profitability, an ROI of 25–35% is achievable within 3–5 years. (26, 27, 30)</t>
@@ -692,9 +700,9 @@
 Proven in-market: Mobile vet services and subsidized drug sales have shown uptake in Karamoja; CAHWs and PPPs are successfully operating in Kenya. (27, 29)</t>
   </si>
   <si>
-    <t>Post-harvest losses: Up to 30–40% of perishable crops are lost due to lack of storage and poor handling, reducing farmer income and food availability. (18, 20, 30)
-Market access inequality: Smallholders and cooperatives lack access to structured markets, forcing them to sell at low prices or lose surplus produce. (18, 20, 30)
-Food system emissions: Spoiled food contributes to methane emissions; improved cold chains reduce waste and promote climate-resilient trade systems. (18)</t>
+    <t>Up to 30–40% of perishable crops are lost due to lack of storage and poor handling, reducing farmer income and food availability. (18, 20, 30)
+Smallholders and cooperatives lack access to structured markets, forcing them to sell at low prices or lose surplus produce. (18, 20, 30)
+Spoiled food contributes to methane emissions; improved cold chains reduce waste and promote climate-resilient trade systems. (18)</t>
   </si>
   <si>
     <t>Chronic feed shortages during dry seasons lead to livestock weight loss, reduced milk yields, and high mortality; most pastoralists lack access to affordable, quality feed alternatives. (12, 13)
@@ -702,10 +710,9 @@
 Post-harvest losses of crop residues and underuse of drought-resistant fodder crops represent missed economic and environmental opportunities for circular, climate-resilient feed production. (12, 13, 20)</t>
   </si>
   <si>
-    <t>Rural Livelihoods &amp; Women’s Empowerment:
-Beekeeping supports 3,000+ farmers, with 70% of traders being women, enhancing income diversification and resilience in fragile areas. Currently, most farmers rely on low-margin raw honey sales due to limited processing and market access. (25, 27, 32)
-Environmental Sustainability &amp; Biodiversity: Beekeeping promotes forest conservation by reducing reliance on deforestation-based livelihoods. However, traditional hives require tree cutting, and climate change, pesticides, and bush burning threaten bee populations. (29, 30)
-Food Security &amp; Market Access: Honey is a nutrient-rich staple in rural areas, reducing malnutrition risks. Yet, poor storage, aggregation, and branding limit profitability, forcing small producers to sell at low prices to intermediaries. (27, 29)</t>
+    <t>Beekeeping supports 3,000+ farmers, with 70% of traders being women, enhancing income diversification and resilience in fragile areas. Currently, most farmers rely on low-margin raw honey sales due to limited processing and market access. (25, 27, 32)
+Beekeeping promotes forest conservation by reducing reliance on deforestation-based livelihoods. However, traditional hives require tree cutting, and climate change, pesticides, and bush burning threaten bee populations. (29, 30)
+Honey is a nutrient-rich staple in rural areas, reducing malnutrition risks. Yet, poor storage, aggregation, and branding limit profitability, forcing small producers to sell at low prices to intermediaries. (27, 29)</t>
   </si>
   <si>
     <t>Youth unemployment remains high in the borderland; tourism offers alternative incomes through guiding, hospitality, and crafts. (1, 2)
@@ -713,14 +720,14 @@
 The region remains stigmatized by insecurity; cross-border tourism can foster peace, community cohesion, and economic collaboration. (4)</t>
   </si>
   <si>
-    <t>Low milk utilization and losses: Most milk in Karamoja is consumed informally or wasted due to lack of cold storage, limiting income and nutrition gains for pastoralist households. (24, 27, 31)
-Limited rural agro-industry: The borderland lacks milk processing facilities, constraining value addition, job creation, and rural economic diversification. (24, 27, 31)
-Nutritional gaps in communities: Malnutrition remains high, especially among children, despite local milk availability, due to poor hygiene, limited access, and lack of fortified dairy products. (24, 27, 31)</t>
-  </si>
-  <si>
-    <t>Low access to finance: Many traders and cooperatives in Karamoja and West Pokot rely on informal savings or costly lenders, limiting business growth, asset accumulation, and resilience to shocks. (1, 2, 12, 14)
-Financial exclusion: Over 40% of households in Karamoja lack any form of formal savings, with limited access to mobile banking, SACCOs, or affordable credit. (7, 9, 12, 18)
-Cooperative undercapitalization: Many SACCOs and trader groups lack working capital and credit facilities, impeding aggregation, storage, and access to regional markets. (26, 27)</t>
+    <t>Most milk in Karamoja is consumed informally or wasted due to lack of cold storage, limiting income and nutrition gains for pastoralist households. (24, 27, 31)
+The borderland lacks milk processing facilities, constraining value addition, job creation, and rural economic diversification. (24, 27, 31)
+Malnutrition remains high, especially among children, despite local milk availability, due to poor hygiene, limited access, and lack of fortified dairy products. (24, 27, 31)</t>
+  </si>
+  <si>
+    <t>Many traders and cooperatives in Karamoja and West Pokot rely on informal savings or costly lenders, limiting business growth, asset accumulation, and resilience to shocks. (1, 2, 12, 14)
+Over 40% of households in Karamoja lack any form of formal savings, with limited access to mobile banking, SACCOs, or affordable credit. (7, 9, 12, 18)
+Many SACCOs and trader groups lack working capital and credit facilities, impeding aggregation, storage, and access to regional markets. (26, 27)</t>
   </si>
   <si>
     <t>Limited meat processing infrastructure leads to value loss, as most livestock are sold live with minimal local value addition or cold chain development. (12, 13)
@@ -730,7 +737,7 @@
   <si>
     <t>Most agri-processors in the borderland rely on costly and unreliable diesel generators, limiting productivity and increasing operational costs for cooperatives and trader groups. (13, 14, 20, 22)
 Lack of access to affordable, clean energy hinders post-harvest handling and value addition, contributing to high food losses and limited income generation. (13, 14, 20, 22)
-Weak-grid and off-grid areas dominate Karamoja and West Pokot, where less than 1% of households are grid-connected in parts of Karamoja, and no viable power alternatives exist for rural enterprises. (13, 14, 20, 22)</t>
+Karamoja and West Pokot are mostly weak-grid and off-grid areas. Less than 1% of households are grid-connected in parts of Karamoja, and no viable power alternatives exist for rural enterprises. (13, 14, 20, 22)</t>
   </si>
   <si>
     <t>Livestock diseases reduce productivity and cause high mortality; current vet service coverage is low, with only 25 veterinarians across Karamoja and poor access to essential medicines. (1, 2, 28)
@@ -738,33 +745,34 @@
 Poor veterinary infrastructure leads to outbreaks and zoonotic risks; limited cold chain and diagnostic labs hinder disease prevention and response. (1, 2? 29)</t>
   </si>
   <si>
-    <t>Limited asset ownership: Women and youth often lack land or storage access, excluding them from value-added trade opportunities and decision-making roles. (6, 27, 32)
-Income gaps: Women typically engage in informal, low-value trading with limited access to cooling or warehousing, reducing their profit margins. (6, 27)
-Market exclusion: Marginalized producers in remote areas face high transport costs and perishability risks, limiting participation in cross-border trade. (27, 31, 32)</t>
+    <t>Women and youth often lack land or storage access, excluding them from value-added trade opportunities and decision-making roles. (6, 27, 32)
+Women typically engage in informal, low-value trading with limited access to cooling or warehousing, reducing their profit margins. (6, 27)
+Marginalized producers in remote areas face high transport costs and perishability risks, limiting participation in cross-border trade. (27, 31, 32)</t>
   </si>
   <si>
     <t>Women and youth are underrepresented in livestock input supply chains and lack access to training, credit, and markets needed to participate in feed production and distribution. (6, 35)
-land tenure barriers restrict women's ability to grow or harvest fodder crops. (6, 35)</t>
-  </si>
-  <si>
-    <t>Women’s Economic Inclusion: 70% of honey traders are women, yet they lack access to finance, modern equipment, and market linkages, limiting their earnings. Most women sell raw honey at low prices due to limited processing and branding opportunities. (29, 31, 32)
-Geographic Marginalization: Beekeeping is key for pastoralist and agro-pastoralist communities in Karamoja and West Pokot, regions with limited economic opportunities. However, weak infrastructure isolates producers from high-value markets. (24, 29)
-Youth &amp; Smallholder Participation: Most beekeepers are smallholders, facing barriers to cooperative membership, credit, and training. Youth engagement is low due to high startup costs for modern hives and a lack of technical support programs. (24, 29)</t>
+Land tenure barriers restrict women's ability to grow or harvest fodder crops. (6, 35)</t>
+  </si>
+  <si>
+    <t>70% of honey traders are women, yet they lack access to finance, modern equipment, and market linkages, limiting their earnings. Most women sell raw honey at low prices due to limited processing and branding opportunities. (29, 31, 32)
+Beekeeping is key for pastoralist and agro-pastoralist communities in Karamoja and West Pokot, regions with limited economic opportunities. However, weak infrastructure isolates producers from high-value markets. (24, 29)
+Most beekeepers are smallholders, facing barriers to cooperative membership, credit, and training. Youth engagement is low due to high startup costs for modern hives and a lack of technical support programs. (24, 29)</t>
   </si>
   <si>
     <t>Women in border markets engage in low-income, informal trade; tourism offers pathways to better livelihoods through hospitality, guiding, and craft sales. (6)
-Marginalized groups rarely lead or benefit from formal tourism initiatives; inclusive models can promote equitable participation. (16)
-Women's cultural roles (e.g., music, crafts, storytelling) are often overlooked; tourism can elevate and reward these contributions. (16)</t>
-  </si>
-  <si>
-    <t>Women's limited ownership of livestock: Cultural norms restrict women’s control over dairy income and livestock assets despite their central role in milking and processing. (6, 31)
-Youth underemployment: Youth face high unemployment due to lack of access to training, capital, and opportunities in the formal dairy value chain. (24, 31)
-Pastoralist market exclusion: Many pastoralist communities lack access to structured dairy markets, cold chains, and quality inputs, reinforcing their economic marginalization. (24, 31)</t>
-  </si>
-  <si>
-    <t>Gender gap in finance: Women face greater exclusion due to lack of collateral, mobility constraints, and low financial literacy, limiting access to credit and savings. (16, 17)
-Youth marginalization: Many young people, especially in Karamoja, store money at home due to limited mobile access and exclusion from formal financial services. (24)
-Cooperative leadership bias: Women and youth are underrepresented in cooperative leadership, reducing their influence over financial decision-making and benefit sharing. (22)</t>
+Marginalized groups rarely lead or benefit from formal tourism initiatives; inclusive models can promote equitable participation. (16, 48)
+Women's cultural roles (e.g., music, crafts, storytelling) are often overlooked; tourism can elevate and reward these contributions. (16, 48)
+The lack of training, education and technical skills are among the most important obstacles for women’s employment in the tourism industry. (48)</t>
+  </si>
+  <si>
+    <t>Cultural norms restrict women’s control over dairy income and livestock assets despite their central role in milking and processing. (6, 31)
+Youth face high unemployment due to lack of access to training, capital, and opportunities in the formal dairy value chain. (24, 31)
+Many pastoralist communities lack access to structured dairy markets, cold chains, and quality inputs, reinforcing their economic marginalization. (24, 31)</t>
+  </si>
+  <si>
+    <t>Women face greater exclusion due to lack of collateral, mobility constraints, and low financial literacy, limiting access to credit and savings. (16, 17)
+Many young people, especially in Karamoja, store money at home due to limited mobile access and exclusion from formal financial services. (24)
+Women and youth are underrepresented in cooperative leadership, reducing their influence over financial decision-making and benefit sharing. (22)</t>
   </si>
   <si>
     <t>Women are largely excluded from formal livestock markets and abattoir ownership, despite their key role in meat processing and by-product handling. (6, 24, 25)
@@ -773,7 +781,7 @@
   </si>
   <si>
     <t>Women-led cooperatives often lack reliable power for small-scale processing, limiting income diversification and access to markets. (20, 21)
-High upfront costs of solar-powered equipment exclude marginalized groups—especially youth and women—from adopting productive-use technologies. (21, 22)
+High upfront costs of solar-powered equipment exclude marginalized groups (especially youth and women) from adopting productive-use technologies. (21, 22)
 Energy poverty disproportionately affects women, who spend long hours collecting fuel and working in poorly lit, low-productivity environments. (14, 21)</t>
   </si>
   <si>
@@ -782,11 +790,11 @@
 Marginalized groups lack access to quality services due to distance, cost, and distrust in drug quality, limiting their ability to protect livestock assets. (23, 24)</t>
   </si>
   <si>
-    <t>Reduced food loss and waste: Storage and cooling minimize spoilage of grains and perishables, improving food availability and lowering post-harvest losses by up to 30%. (1, 2, 20)
-Increased farmer incomes: Improved storage access stabilizes prices and enables bulk selling, allowing producers and cooperatives to capture higher market value. (1, 2, 31)
-Expanded market access: Cross-border hubs integrate remote farmers and traders into formal trade networks, increasing participation in regional value chains. (28, 31, 32)
-Climate resilience and sustainability: Efficient storage and reduced transport waste lower emissions, while cold chains extend shelf life and improve year-round food supply. (18, 31)
-Improved security: Shared market infrastructure reducing cross-border trade tensions and enhancing economic interdependence between historically competing communities. (28, 31)</t>
+    <t>Storage and cooling minimize spoilage of grains and perishables, improving food availability and lowering post-harvest losses by up to 30%. (1, 2, 20)
+Improved storage access stabilizes prices and enables bulk selling, allowing producers and cooperatives to capture higher market value. (1, 2, 31)
+Cross-border hubs integrate remote farmers and traders into formal trade networks, increasing participation in regional value chains. (28, 31, 32)
+Efficient storage and reduced transport waste lower emissions, while cold chains extend shelf life and improve year-round food supply. (18, 31)
+Shared market infrastructure reducing cross-border trade tensions and enhancing economic interdependence between historically competing communities. (28, 31)</t>
   </si>
   <si>
     <t>Increases livestock productivity and resilience by addressing chronic dry season feed shortages, reducing animal mortality and improving food security. (12, 13, 20)
@@ -800,32 +808,31 @@
 Expanding formal market access reduces reliance on informal, exploitative trade, addressing economic drivers of conflict. Strengthening cooperatives and cross-border trade agreements fosters economic ties between communities, reducing tensions over resources and enhancing regional stability. (31)</t>
   </si>
   <si>
-    <t>Job creation and income diversification: Tourism generates employment for youth and women in guiding, lodging, and crafts, reducing reliance on low-return subsistence activities. (11, 12)
-Cultural preservation and local pride: Promotes intergenerational knowledge transfer, safeguards traditions, and fosters pride in cultural identity. (11, 12)
-Regional economic integration: Encourages cross-border trade and collaboration between Uganda and Kenya, strengthening economic ties and market access. (11, 12)
-Contribution to peace and stability: Tourism incentivizes peaceful relations, enhances community cohesion, and reframes the borderland as a destination rather than a conflict zone. (11, 12)</t>
-  </si>
-  <si>
-    <t>Increased rural incomes: Improved dairy aggregation and processing will raise incomes for pastoralist and smallholder farmers by unlocking new, stable markets. (24, 27, 31)
-Enhanced food and nutrition security: Locally processed dairy products like milk and yogurt will improve year-round access to nutritious food for households. (24, 27, 31)
-Job creation and cooperative strengthening: Dairy value chain investments will generate employment, especially for youth and women, and strengthen local cooperative systems. (24, 27, 31)
-Conflict mitigation through trade: Cross-border dairy trade between Karamoja and West Pokot will foster peaceful economic cooperation and reduce tensions linked to livestock competition. (24, 27, 31)</t>
-  </si>
-  <si>
-    <t>Financial inclusion for underserved groups: Expanding mobile and SACCO-based services enables informal traders and cooperatives to access credit and savings, unlocking livelihoods and reducing poverty. (12, 14, 22)
-Enterprise growth and job creation: Flexible working capital allows small businesses to grow, improving incomes and creating employment, especially for youth and women. (23)
-Reduces economic drivers of instability: By increasing financial resilience and cross-border market participation, the provision of tailored financial services addresses exclusion and resource-based tensions that fuel insecurity. (25, 26, 27)</t>
-  </si>
-  <si>
-    <t>Increased rural incomes: Local processing captures more value within the borderland, raising incomes for pastoralists and traders while stimulating employment across the supply chain. (12, 13, 23)
-Food system resilience: Cold chain and year-round processing reduce post-slaughter losses, stabilize meat supply, and enhance food security in climate-vulnerable areas. (1, 2, 12, 13)
-Livelihood diversification: New roles in logistics, packaging, and quality control expand off-farm income options, especially for women and youth. (12, 13, 31)
-Conflict reduction potential: Cross-border aggregation and shared market infrastructure can foster cooperation and reduce competition over pasture and markets, particularly in high-tension zones like Moroto and West Pokot. 12, 13, 33)</t>
-  </si>
-  <si>
-    <t>Improved productivity and income: Solar-powered systems enable agro-processors and cooperatives to expand operations, reduce losses, and increase earnings through consistent and cost-effective energy access. (13, 14, 15)
-Job creation and local economic development: Renewable energy for processing stimulates value addition and off-farm employment, particularly in youth- and women-led enterprises. (13, 14, 15)
-Reduced conflict over resources: Access to reliable, off-grid energy reduces dependence on biomass, easing competition over firewood and pastureland, which are key drivers of conflict in the borderland. (4, 20, 22)</t>
+    <t>Tourism generates employment for youth and women in guiding, lodging, and crafts, reducing reliance on low-return subsistence activities. (11, 12)
+Promotes intergenerational knowledge transfer, safeguards traditions, and fosters pride in cultural identity. (11, 12)
+Encourages cross-border trade and collaboration between Uganda and Kenya, strengthening economic ties and market access. (11, 12)
+Tourism incentivizes peaceful relations, enhances community cohesion, and reframes the borderland as a destination rather than a conflict zone. (11, 12)</t>
+  </si>
+  <si>
+    <t>Improved dairy aggregation and processing will raise incomes for pastoralist and smallholder farmers by unlocking new, stable markets. (24, 27, 31)
+Locally processed dairy products like milk and yogurt will improve year-round access to nutritious food for households. (24, 27, 31)
+Dairy value chain investments will generate employment, especially for youth and women, and strengthen local cooperative systems. (24, 27, 31)
+Cross-border dairy trade between Karamoja and West Pokot will foster peaceful economic cooperation and reduce tensions linked to livestock competition. (24, 27, 31)</t>
+  </si>
+  <si>
+    <t>Expanding mobile and SACCO-based services enables informal traders and cooperatives to access credit and savings, unlocking livelihoods and reducing poverty. (12, 14, 22)
+Flexible working capital allows small businesses to grow, improving incomes and creating employment, especially for youth and women. (23)
+By increasing financial resilience and cross-border market participation, the provision of tailored financial services addresses exclusion and resource-based tensions that fuel insecurity. (25, 26, 27)</t>
+  </si>
+  <si>
+    <t>Local processing captures more value within the borderland, raising incomes for pastoralists and traders while stimulating employment across the supply chain. (12, 13, 23)
+Cold chain and year-round processing reduce post-slaughter losses, stabilize meat supply, and enhance food security in climate-vulnerable areas. (1, 2, 12, 13)
+New roles in logistics, packaging, and quality control expand off-farm income options, especially for women and youth. (12, 13, 31)
+Cross-border aggregation and shared market infrastructure can foster cooperation and reduce competition over pasture and markets, particularly in high-tension zones like Moroto and West Pokot. 12, 13, 33)</t>
+  </si>
+  <si>
+    <t>Solar-powered systems enable agro-processors and cooperatives to expand operations, reduce losses, and increase earnings through consistent and cost-effective energy access. (13, 14, 15)
+Renewable energy for processing stimulates value addition and off-farm employment, particularly in youth- and women-led enterprises. (13, 14, 15)</t>
   </si>
   <si>
     <t>Improved animal health and productivity will boost household incomes, enhance food security, and support climate-resilient pastoral and agro-pastoral livelihoods. (12, 13)
@@ -833,10 +840,10 @@
 By improving economic opportunities and reducing livestock-related losses, the business can ease intergroup competition over scarce veterinary inputs and enhance cross-border collaboration. (27)</t>
   </si>
   <si>
-    <t>Economic inclusion of women and youth: Access to shared storage facilities enables small-scale female and youth traders to participate in formal markets and earn higher, more stable incomes. (27)
-Reduced market exclusion: Aggregation hubs close the distance gap for remote or marginalized producers, lowering entry barriers to profitable cross-border trade. (27, 31)
-Empowerment through collective use: Group-based leasing models promote cooperative ownership and management, increasing women’s and youth’s voice in trade decisions. (29, 31)
-Skill development and agency: Training in post-harvest handling and quality standards equips marginalized groups with skills to move up value chains and diversify income. (31)</t>
+    <t>Access to shared storage facilities enables small-scale female and youth traders to participate in formal markets and earn higher, more stable incomes. (27)
+Aggregation hubs close the distance gap for remote or marginalized producers, lowering entry barriers to profitable cross-border trade. (27, 31)
+Group-based leasing models promote cooperative ownership and management, increasing women’s and youth’s voice in trade decisions. (29, 31)
+Training in post-harvest handling and quality standards equips marginalized groups with skills to move up value chains and diversify income. (31)</t>
   </si>
   <si>
     <t>Generates inclusive income opportunities for women, youth, and pastoralists through decentralized feed production and distribution networks. (6, 35)
@@ -845,33 +852,33 @@
   </si>
   <si>
     <t>Developing the honey value chain strengthens women’s participation by providing access to credit, modern hives, and processing equipment, enabling them to scale production and earn higher margins. Training in branding and cooperative marketing enhances market access, boosting financial independence and income stability. (18, 29)
-By investing in processing hubs, transport, and cooperative networks, the IOA integrates remote beekeepers into formal markets. Strengthening cross-border trade helps pastoralist communities access high-value buyers, reducing economic isolation and enhancing regional trade links.
-The IOA lowers entry barriers by subsidizing modern hives, offering credit, and providing technical training. Strengthening cooperatives ensures smallholders gain price negotiation power, while targeted programs encourage youth engagement, creating sustainable employment opportunities.</t>
-  </si>
-  <si>
-    <t>Women’s economic empowerment: Provides income-generating roles in guiding, crafts, hospitality, and tourism management, increasing women’s financial independence and decision-making power. (11, 12, 15)
-Inclusion of marginalized groups: Engages youth, ethnic minorities, and remote communities in tourism value chains, improving visibility, voice, and access to opportunities. (11, 12)
-Gender-inclusive governance: Promotes equitable participation in community tourism associations and benefit-sharing structures, ensuring women influence decisions. (12)</t>
-  </si>
-  <si>
-    <t>Empowered women in dairy roles: By formalizing roles in milk collection, processing, and sales, women will gain income and recognition in a traditionally male-dominated sector. (27)
-Youth employment opportunities: The dairy value chain will create new jobs in aggregation, transport, and marketing, reducing marginalization and rural-urban migration among youth. (27)
-Inclusive cooperative membership: Targeted support will increase participation of women and smallholders in dairy cooperatives, giving them access to credit, training, and markets. (23, 27)</t>
-  </si>
-  <si>
-    <t>Empowerment of women entrepreneurs: Tailored loan products and SACCO partnerships enable women-led businesses to access credit, build assets, and grow income-generating activities. (16, 17)
-Youth financial inclusion: Mobile and agent-based solutions reduce access barriers for youth, fostering self-employment and financial independence. (22)
-Reduced exclusion from formal finance: Group-based lending and literacy training help marginalized groups overcome collateral and knowledge barriers, promoting equitable economic participation. (14)</t>
-  </si>
-  <si>
-    <t>Expanded roles for women: Value addition and meat processing create non-traditional roles for women in packaging, quality control, and distribution, enhancing inclusion and income generation. (6, 33)
-Opportunities for youth: Cold chain logistics and cooperative management offer employment pathways for marginalized youth with limited access to land or livestock. (6, 23, 33)
-Stronger collective action: Supporting pastoralist cooperatives strengthens the bargaining power of marginalized producers and enables greater inclusion in formal markets. (6, 33)</t>
-  </si>
-  <si>
-    <t>Increased inclusion of women in value chains: Solar-powered processing reduces labor burden and enables women-led cooperatives to expand income-generating activities such as dairy, milling, and poultry. (20, 22)
-Enhanced access for remote and marginalized groups: Pay-as-you-go models and cooperative-based distribution lower barriers to energy access for pastoralists and underserved rural households. (20, 22)
-Greater youth engagement in green jobs: The deployment of renewable energy systems creates opportunities for youth in installation, maintenance, and entrepreneurship, supporting local employment and skills development. (20, 22)</t>
+By investing in processing hubs, transport, and cooperative networks, remote beekeepers are integrated into formal markets. Strengthening cross-border trade helps pastoralist communities access high-value buyers, reducing economic isolation and enhancing regional trade links.
+Supporting honey production and processing lowers entry barriers by subsidizing modern hives, offering credit, and providing technical training. Strengthening cooperatives ensures smallholders gain price negotiation power, while targeted programs encourage youth engagement, creating sustainable employment opportunities.</t>
+  </si>
+  <si>
+    <t>Provides income-generating roles in guiding, crafts, hospitality, and tourism management, increasing women’s financial independence and decision-making power. (11, 12, 15)
+Engages youth, ethnic minorities, and remote communities in tourism value chains, improving visibility, voice, and access to opportunities. (11, 12)
+Promotes equitable participation in community tourism associations and benefit-sharing structures, ensuring women influence decisions. (12)</t>
+  </si>
+  <si>
+    <t>By formalizing roles in milk collection, processing, and sales, women will gain income and recognition in a traditionally male-dominated sector. (27)
+The dairy value chain will create new jobs in aggregation, transport, and marketing, reducing marginalization and rural-urban migration among youth. (27)
+Targeted support will increase participation of women and smallholders in dairy cooperatives, giving them access to credit, training, and markets. (23, 27)</t>
+  </si>
+  <si>
+    <t>Tailored loan products and SACCO partnerships enable women-led businesses to access credit, build assets, and grow income-generating activities. (16, 17)
+Mobile and agent-based solutions reduce access barriers for youth, fostering self-employment and financial independence. (22)
+Group-based lending and literacy training help marginalized groups overcome collateral and knowledge barriers, promoting equitable economic participation. (14)</t>
+  </si>
+  <si>
+    <t>Value addition and meat processing create non-traditional roles for women in packaging, quality control, and distribution, enhancing inclusion and income generation. (6, 33)
+Cold chain logistics and cooperative management offer employment pathways for marginalized youth with limited access to land or livestock. (6, 23, 33)
+Supporting pastoralist cooperatives strengthens the bargaining power of marginalized producers and enables greater inclusion in formal markets. (6, 33)</t>
+  </si>
+  <si>
+    <t>Solar-powered processing reduces labor burden and enables women-led cooperatives to expand income-generating activities such as dairy, milling, and poultry. (20, 22)
+Pay-as-you-go models and cooperative-based distribution lower barriers to energy access for pastoralists and underserved rural households. (20, 22)
+The deployment of renewable energy systems creates opportunities for youth in installation, maintenance, and entrepreneurship, supporting local employment and skills development. (20, 22)</t>
   </si>
   <si>
     <t>Training and equipping female Community Animal Health Workers (CAHWs) will create new income streams and challenge gender norms in animal health service provision. (27, 29)
@@ -890,11 +897,13 @@
   </si>
   <si>
     <t>1 - No Poverty
-8 - Decent Work and Economic Growth</t>
-  </si>
-  <si>
-    <t>8 - Decent Work and Economic Growth
-5 - Gender Equality</t>
+8 - Decent Work and Economic Growth
+12 - Responsible Consumption and Production</t>
+  </si>
+  <si>
+    <t>5 - Gender Equality
+8 - Decent Work and Economic Growth
+12 - Responsible Consumption and Production</t>
   </si>
   <si>
     <t>2 - Zero Hunger
@@ -902,8 +911,9 @@
 8 - Decent Work and Economic Growth</t>
   </si>
   <si>
-    <t>2 - Zero Hunger
-8 - Decent Work and Economic Growth</t>
+    <t>1 - No Poverty
+8 - Decent Work and Economic Growth
+10 - Reduced Inequalities</t>
   </si>
   <si>
     <t>7 - Affordable and Clean Energy
@@ -912,7 +922,8 @@
   </si>
   <si>
     <t>1 - No Poverty
-2 - Zero Hunger</t>
+2 - Zero Hunger
+10 - Reduced Inequalities</t>
   </si>
   <si>
     <t>1.1.1 Proportion of the population living below the international poverty line by sex, age, employment status and geographic location (urban/rural)
@@ -927,11 +938,13 @@
   </si>
   <si>
     <t>1.1.1 Proportion of the population living below the international poverty line by sex, age, employment status and geographic location (urban/rural)
-8.3.1 Proportion of informal employment in total employment, by sector and sex</t>
-  </si>
-  <si>
-    <t>8.9.1 Tourism direct GDP as a proportion of total GDP and in growth rate
-5.5.2 Proportion of women in managerial positions</t>
+8.3.1 Proportion of informal employment in total employment, by sector and sex
+12.2.1 Material footprint, material footprint per capita, and material footprint per GDP</t>
+  </si>
+  <si>
+    <t>5.5.2 Proportion of women in managerial positions
+8.9.1 Tourism direct GDP as a proportion of total GDP and in growth rate
+12.b.1 Implementation of standard accounting tools to monitor the economic and environmental aspects of tourism sustainability</t>
   </si>
   <si>
     <t>2.3.1 Volume of production per labour unit by classes of farming/pastoral/forestry enterprise size
@@ -940,10 +953,12 @@
   </si>
   <si>
     <t>1.1.1 Proportion of the population living below the international poverty line by sex, age, employment status and geographic location (urban/rural)
-8.10.2 Proportion of adults (15 years and older) with an account at a bank or other financial institution or with a mobile-money-service provider</t>
-  </si>
-  <si>
-    <t>2.3.1 Volume of production per labour unit by classes of farming/pastoral/forestry enterprise size
+8.10.2 Proportion of adults (15 years and older) with an account at a bank or other financial institution or with a mobile-money-service provider
+10.2.1 Proportion of people living below 50 per cent of median income, by sex, age and persons with disabilities</t>
+  </si>
+  <si>
+    <t>1.1.1 Proportion of the population living below the international poverty line by sex, age, employment status and geographic location (urban/rural)
+2.3.1 Volume of production per labour unit by classes of farming/pastoral/forestry enterprise size
 8.3.1 Proportion of informal employment in total employment, by sector and sex</t>
   </si>
   <si>
@@ -954,7 +969,8 @@
   </si>
   <si>
     <t>1.1.1 Proportion of the population living below the international poverty line by sex, age, employment status and geographic location (urban/rural)
-2.3.1 Volume of production per labour unit by classes of farming/pastoral/forestry enterprise size</t>
+2.3.1 Volume of production per labour unit by classes of farming/pastoral/forestry enterprise size
+10.2.1 Proportion of people living below 50 per cent of median income, by sex, age and persons with disabilities</t>
   </si>
   <si>
     <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
@@ -965,8 +981,8 @@
 (33, 34)</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
-No data publicly available. </t>
+    <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
+Data only available for Uganda at national level: 5.74 USD</t>
   </si>
   <si>
     <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
@@ -975,8 +991,7 @@
 (34, 35)</t>
   </si>
   <si>
-    <t>No data publicly available. 
-As of 2019, data for Uganda indicates that approximately 40% of the agricultural population had legally recognized documentation or the right to sell or bequeath their agricultural land. Within this group, over 50% of men possessed such rights, whereas less than 30% of women did. 
+    <t>As of 2019, data for Uganda indicates that approximately 40% of the agricultural population had legally recognized documentation or the right to sell or bequeath their agricultural land. Within this group, over 50% of men possessed such rights, whereas less than 30% of women did. 
 For Kenya, specific baseline values for SDG Indicator 5.a.1 are not readily available. 
 In 2023, Kenya's informal sector employed approximately 16.7 million individuals, accounting for about 83.5% of the total employment.
 The informal sector in Uganda employs about 13.3 million people out of the 15.8 million working population, representing approximately 85% of total employment.
@@ -987,21 +1002,23 @@
 As of 2017, 82% of Kenyan adults aged 15 and above had an account at a financial institution or with a mobile-money-service provider. In Uganda, the figure was approximately 59.2% for the same demographic in 2017. (32, 33)</t>
   </si>
   <si>
-    <t>No data publicly available. 
+    <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
 In 2023, Kenya's informal sector employed approximately 16.7 million individuals, accounting for about 83.5% of the total employment.
 The informal sector in Uganda employs about 13.3 million people out of the 15.8 million working population, representing approximately 85% of total employment.
 (33, 34)</t>
   </si>
   <si>
+    <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)</t>
+  </si>
+  <si>
     <t>The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)
-Kenya and Uganda have not specified explicit targets to reduce the proportion of informal employment within their labor forces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)
-No data publicly available. </t>
-  </si>
-  <si>
-    <t>No data publicly available. 
+0</t>
+  </si>
+  <si>
+    <t>The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)</t>
+  </si>
+  <si>
+    <t>The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)
 Kenya and Uganda have not specified explicit targets to reduce the proportion of informal employment within their labor forces.</t>
   </si>
   <si>
@@ -1026,8 +1043,16 @@
 12 - Responsible Consumption and Production</t>
   </si>
   <si>
+    <t>2 - Zero Hunger
+5 - Gender Equality</t>
+  </si>
+  <si>
     <t>1 - No Poverty
 9 - Industry, Innovation and Infrastructure</t>
+  </si>
+  <si>
+    <t>8 - Decent Work and Economic Growth
+15 - Life on Land</t>
   </si>
   <si>
     <t>People: Smallholder farmers and traders benefit from reduced losses and better prices.
@@ -1458,6 +1483,7 @@
 Kenya Tourism Act (2011): Establishes regulation of tourism enterprises and encourages diversification into cultural and eco-tourism, enabling registration and support for local operators. (27)
 Uganda Wildlife Act (2019):
 Supports community participation in conservation and tourism around protected areas, facilitating eco-lodge development and benefit sharing near wildlife zones. (28)
+Kenya Tourism Regulatory Authority Regulations 2014: These regulations regulate the standardization and classification of tourism enterprises, licensing of tourism activities and services, and employment and vetting of expatriates. (46)
 Kenya Wildlife Conservation and Management Act (2013):
 Encourages conservancies and community tourism enterprises through legal recognition and benefit-sharing, supporting eco-tourism in rangeland regions. (29)</t>
   </si>
@@ -1642,7 +1668,8 @@
     <t>Tourism Finance Corporation (Kenya): Offers concessional loans to tourism investors, including community lodges and campsites, helping reduce financing barriers for early-stage infrastructure. (34)
 Uganda Development Bank (UDB): Provides credit for tourism SMEs and infrastructure under its priority sectors program, including eco-tourism and rural hospitality ventures. (35)
 EAC Tourism Marketing Support: The EAC provides grants and joint promotion campaigns for regional tourism circuits, helping lower marketing costs for cross-border destinations. (36)
-VAT exemptions on tourism inputs: Both Kenya and Uganda offer VAT exemptions on construction materials and inputs for registered tourism facilities, reducing capital expenditure burdens. (37)
+The capital deduction for hotel building expenditures is 70%. Duty exemptions are available for constructing/upgrading accommodation facilities. Capital repatriation and the remittance of dividends and interest are guaranteed for foreign investors if they pay the applicable taxes. 
+VAT exemptions on tourism inputs: Both Kenya and Uganda offer VAT exemptions on construction materials and inputs for registered tourism facilities, reducing capital expenditure burdens. (37, 47)
 Public-private partnerships (PPP) frameworks:
 Kenya and Uganda support tourism PPPs, allowing counties and districts to co-invest or provide land and infrastructure to community tourism projects.</t>
   </si>
@@ -1677,29 +1704,28 @@
 VAT and Input Exemptions (Kenya): Veterinary drugs and AI inputs benefit from VAT exemptions under Kenya’s agricultural tax regime, making cost recovery more feasible for input suppliers and franchised vet models. (49)</t>
   </si>
   <si>
-    <t>Cattle raiding resurgence: Highly commercialized and increasingly violent raids involving armed groups pose threats to infrastructure and supply chains, especially in Moroto and Amudat​. (4, 55, 56)
-Cross-Border Tensions: Ongoing disputes, such as Uganda’s 2023 expulsion of Turkana herders, disrupt trade and movement. Regulatory unpredictability affects honey supply chains, impacting exports to Kenya and Uganda. (4, 49, 50)
-Highway banditry and extortion: Sporadic attacks on transport routes disrupt produce movement, particularly in remote border districts, increasing operational costs and investor hesitation​. (4, 49, 50)
-Weak law enforcement and mistrust: Tense relations between communities and security forces, combined with limited government presence, hinder effective risk management for private businesses. (6, 31)
-Seasonal conflict spikes: Dry seasons increase mobility and resource scarcity, often triggering cross-border conflict, affecting trader safety and storage facility operations. (4, 55, 56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattle raiding and intercommunal violence: In border areas like Amudat, Moroto, and West Pokot, frequent cattle raids fuel insecurity, disrupt livestock movement, and threaten supply chains for feed distribution and raw material sourcing. (4, 52, 53)
-Cross-border insecurity: Porous borders and weak enforcement facilitate livestock theft and fuel disputes over shared grazing corridors, affecting trust and cooperation across trading partners and feed buyers.  (4, 52, 53)
+    <t>Highly commercialized and increasingly violent raids involving armed groups pose threats to infrastructure and supply chains, especially in Moroto and Amudat​. (4, 55, 56)
+Ongoing disputes, such as Uganda’s 2023 expulsion of Turkana herders, disrupt trade and movement. Regulatory unpredictability affects supply chains, impacting exports to Kenya and Uganda. (4, 49, 50)
+Sporadic attacks on transport routes disrupt produce movement, particularly in remote border districts, increasing operational costs and investor hesitation​. (4, 49, 50)
+Tense relations between communities and security forces, combined with limited government presence, hinder effective risk management for private businesses. (6, 31)
+Dry seasons increase mobility and resource scarcity, often triggering cross-border conflict, affecting trader safety and storage facility operations. (4, 55, 56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In border areas, frequent cattle raids fuel insecurity, disrupt livestock movement, and threaten supply chains for feed distribution and raw material sourcing. (4, 52, 53)
+Porous borders and weak enforcement facilitate livestock theft and fuel disputes over shared grazing corridors, affecting trust and cooperation across trading partners and feed buyers.  (4, 52, 53)
 </t>
   </si>
   <si>
-    <t>Cattle Raiding and Armed Attacks: Frequent cattle rustling in Karamoja and West Pokot disrupts economic activity, creates insecurity for supply chains, and increases livestock theft risk for beekeepers. Violence in Karita, Kobebe, and Kibish remains a major concern. (4, 49, 50)
-Cross-Border Tensions: Ongoing disputes, such as Uganda’s 2023 expulsion of Turkana herders, disrupt trade and movement. Regulatory unpredictability affects honey supply chains, impacting exports to Kenya and Uganda. (4, 49, 50)
-Banditry and Road Insecurity: Road banditry and armed robbery pose threats to honey transport and trade. Beekeepers and traders face higher insurance costs, disrupted deliveries, and loss of stock along key trade routes. (4, 49, 50)
-Weak Law Enforcement: Limited government presence, potential bribery at checkpoints, and inconsistent regulations increase costs and delays for honey businesses. Informal trade dominates, reducing profitability and formalization. (6, 31)
-Climate-Driven Resource Conflicts: Droughts and water scarcity fuel pastoralist conflicts, displacing communities and disrupting honey production. Environmental degradation affects bee forage availability, lowering yields. (4, 49, 50)</t>
+    <t>Frequent cattle rustling in Karamoja and West Pokot disrupts economic activity, creates insecurity for supply chains, and increases livestock theft risk for beekeepers. Violence in Karita, Kobebe, and Kibish remains a major concern. (4, 49, 50)
+Ongoing disputes, such as Uganda’s 2023 expulsion of Turkana herders, disrupt trade and movement. Regulatory unpredictability affects honey supply chains, impacting exports to Kenya and Uganda. (4, 49, 50)
+Road banditry and armed robbery pose threats to honey transport and trade. Beekeepers and traders face higher insurance costs, disrupted deliveries, and loss of stock along key trade routes. (4, 49, 50)
+Limited government presence, potential bribery at checkpoints, and inconsistent regulations increase costs and delays for honey businesses. Informal trade dominates, reducing profitability and formalization. (6, 31)
+Droughts and water scarcity fuel pastoralist conflicts, displacing communities and disrupting honey production. Environmental degradation affects bee forage availability, lowering yields. (4, 49, 50)</t>
   </si>
   <si>
     <t>Sporadic cattle raiding and land disputes may create perceptions of insecurity, deterring tourists and limiting private sector willingness to invest in community-based tourism infrastructure. (4, 41, 42)
 Limited police presence and slow emergency response in tourism zones reduce visitor confidence and increase reputational risk for tour operators and investors. (41, 42)
-Negative narratives persist despite improving conditions; continued media focus on insecurity undermines destination branding and market appeal. (13, 18)
-Cross-border criminal networks smuggling drugs and livestock, particularly around Alale and Amudat, erode trust in veterinary products and formal services. This threatens the viability of franchised vet models and public-private coordination efforts. (27)</t>
+Negative narratives persist despite improving conditions; continued media focus on insecurity undermines destination branding and market appeal. (13, 18)</t>
   </si>
   <si>
     <t xml:space="preserve">Cattle raiding and inter-clan conflict remain persistent, especially in parts of West Pokot, Turkana, and Karamoja. These undermine livestock supply chains and deter private investment in dairy aggregation and processing facilities. (4, 52, 63)
@@ -1709,81 +1735,74 @@
 </t>
   </si>
   <si>
-    <t>Cattle raiding and armed banditry: These recurrent incidents create unsafe market environments and disrupt trade routes, deterring financial institutions from setting up agent networks and increasing transaction risks for mobile and cooperative-based banking. (4, 45, 46)
-Targeted attacks on traders and transporters: Small traders and aggregation cooperatives face ambushes along major routes like Moroto–Kotido and Kacheliba–Amudat. This reduces confidence in market travel, weakens loan repayment cycles, and discourages cooperative-led aggregation. (4, 45, 46)
-Informal dispute resolution: In areas like West Pokot and southern Karamoja, weak state presence fuels reliance on informal justice, which can create business uncertainty and legal insecurity for borrowers, lenders, and SACCOs attempting to recover loans or resolve disputes. (4, 45, 46)
-Cross-border insecurity linked to ethnic tensions: Clashes between Pokot and Tepeth or Dodoth groups periodically close border points, halting trade. For cross-border financial services models, this undermines continuity of operations, especially for cooperatives straddling both sides. (45, 46, 48)</t>
-  </si>
-  <si>
-    <t>Cattle Raids and Armed Conflict: Frequent cross-border cattle raids in West Pokot and Karamoja create insecurity, disrupt livestock supply chains, and heighten tensions between communities, discouraging private sector investment and complicating logistics operations. (4, 58, 59)
-Militia Activity and Banditry: Presence of armed groups and localized militia activity in areas like Turkana border and parts of Karamoja destabilizes markets, threatens transport corridors, and puts infrastructure like abattoirs and cold chains at risk of attack or vandalism.  (4, 58, 59)
-Weak Policing and Security Infrastructure: Limited security posts, poor police mobility, and understaffed security teams around rural trade corridors reduce deterrence for theft and sabotage, making it difficult to secure investment assets and livestock en route to processing facilities. (4, 58, 59)
-Seasonal Mobility and Resource Conflicts: Dry-season migration of pastoralists across borders intensifies competition over water and grazing, triggering local disputes that can escalate into broader security concerns and impede livestock aggregation for processing. (4, 58, 59)</t>
+    <t>Recurrent cattle raiding incidents incidents create unsafe market environments and disrupt trade routes, deterring financial institutions from setting up agent networks and increasing transaction risks for mobile and cooperative-based banking. (4, 45, 46)
+Small traders and aggregation cooperatives face ambushes along major routes (e.g. Moroto–Kotido and Kacheliba–Amudat). This reduces confidence in market travel, weakens loan repayment cycles, and discourages cooperative-led aggregation. (4, 45, 46)
+Weak state presence fuels reliance on informal justice, which can create business uncertainty and legal insecurity for borrowers, lenders, and SACCOs attempting to recover loans or resolve disputes. (4, 45, 46)
+Clashes between ethnic groups periodically close border points, halting trade. For cross-border financial services models, this undermines continuity of operations, especially for cooperatives straddling both sides. (45, 46, 48)</t>
+  </si>
+  <si>
+    <t>Frequent cross-border cattle raids in West Pokot and Karamoja create insecurity, disrupt livestock supply chains, and heighten tensions between communities, discouraging private sector investment and complicating logistics operations. (4, 58, 59)
+Presence of armed groups and localized militia activity in areas like Turkana border and parts of Karamoja destabilizes markets, threatens transport corridors, and puts abattoirs and cold chains infrastructure at risk of attack or vandalism.  (4, 58, 59)
+Limited security posts, poor police mobility, and understaffed security teams around rural trade corridors reduce deterrence for theft and sabotage, making it difficult to secure investment assets and livestock en route to processing facilities. (4, 58, 59)
+Dry-season migration of pastoralists across borders intensifies competition over water and grazing, triggering local disputes that can escalate into broader security concerns and impede livestock aggregation for processing. (4, 58, 59)</t>
   </si>
   <si>
     <t>While large-scale raids have declined, sporadic attacks persist, disrupting livestock markets and deterring investment in processing and solar infrastructure reliant on stable trade flows. (44, 45, 21)
-Traders transporting solar-powered equipment or agri-products face bribes and theft at informal checkpoints, especially around Moroto. This raises costs and limits scalability of decentralized PAYGO models. (18, 44, 45)
-The lack of permanent security presence and continued reliance on informal justice mechanisms in areas like Amudat and northern West Pokot create impunity for asset theft, threatening investment in distributed solar systems. (44? 45, 46)
+Traders transporting solar-powered equipment or agri-products may face bribes or theft at informal checkpoints. This raises costs and limits scalability of decentralized PAYGO models. (18, 44, 45)
+The lack of permanent security presence and continued reliance on informal justice mechanisms create impunity for asset theft, threatening investment in distributed solar systems. (44, 45, 46)
 Seasonal conflicts, particularly involving Turkana and Pokot communities, can disrupt livestock trade and agro-processing hubs that depend on regional inputs, especially near water infrastructure used for solar-powered cooling. (44, 45, 48)
 Persistent conflict risks limit bank willingness to lend to cooperatives or SMEs in the sector. High collateral demands and fear of loan default tied to mobility restrictions affect working capital and leasing options. (20, 21, 22)</t>
   </si>
   <si>
     <t>Cattle raiding and retaliatory violence remain persistent, especially in Amudat, Moroto, and northern West Pokot. These disrupt livestock mobility, affect veterinary outreach, and deter private investment in mobile or fixed veterinary infrastructure. (4, 50, 51)
 Ambushes and road insecurity during dry seasons, particularly along livestock trade and veterinary supply routes, hinder drug distribution, AI material transport, and service provision by CAHWs and vet clinics. This affects continuity and increases costs. (4, 27, 50)
-Localized militia activity and clan-based tensions, including disputes over pasture and water access, lead to population displacement and periodic market closures in areas like Rupa and Chepareria. This undermines herd management consistency and limits breeding program uptake. (28)
-Cross-border criminal networks smuggling drugs and livestock, particularly around Alale and Amudat, erode trust in veterinary products and formal services. This threatens the viability of franchised vet models and public-private coordination efforts. (27)</t>
-  </si>
-  <si>
-    <t>Fragmented governance systems: Investors must navigate parallel governance structures (traditional councils and formal governments) that often conflict, potentially slowing or derailing project approvals and execution​. (47)
-Land and resource contestation: Resource-based tensions—especially over land and water—pose risks of local disputes, particularly if warehouse or infrastructure investments are seen to benefit one group over another. (47)
-Gender exclusion from trade networks: Traditional norms and systemic discrimination limit women’s participation in formal trade and land ownership, risking the entrenchment of gender inequality unless proactively addressed. (6, 47)
-Weak cross-border policy coordination: Inconsistent trade policies, sudden export bans (e.g., maize), and bureaucratic hurdles between Uganda and Kenya cause volatility and reduce trust among traders, undermining the business model's stability. (6, 27, 31, 32)
-Peacebuilding dependency: While peace initiatives have improved stability, business scalability still hinges on ongoing support from peace actors. Without continued mediation, localized tensions could escalate and affect trade. (4, 55, 56)</t>
-  </si>
-  <si>
-    <t>Power imbalances in cross-border trade: Dominant trader networks and elite capture of livestock markets often exclude smallholders and women, leading to unequal benefits and reduced uptake of formal feed distribution channels. (54)
-Weak Formal Institutions:
-Local governance structures are weak, and corruption at checkpoints and in licensing raises operational costs. Investors must navigate informal power networks to establish secure trade routes. (51)
-Customary land ownership and tenure disputes: Land needed for fodder cultivation or feed storage is subject to overlapping claims, especially in areas with weak land governance, raising risks of contestation and project delays. (54)
-Gendered exclusion from natural resource control: Women have limited access to decision-making and land, which constrains their participation in fodder production and cooperative ownership, unless specific inclusion strategies are pursued. (6, 35)
-Cross-border coordination gaps: Weak harmonization of trade and veterinary regulations between Uganda and Kenya hampers the movement of livestock and feed, increasing transaction costs and reducing the competitiveness of feed enterprises. (6, 12, 13)</t>
-  </si>
-  <si>
-    <t>Resource-Based Competition: Land and water access disputes affect beekeeping expansion. Traditional leaders control resource allocation, requiring engagement to secure sustainable production sites. (51)
-Weak Formal Institutions:
-Local governance structures are weak, and corruption at checkpoints and in licensing raises operational costs. Investors must navigate informal power networks to establish secure trade routes. (51)
-Trade Policy Uncertainty: Cross-border honey trade faces regulatory inconsistencies, fluctuating tariffs, and informal taxation, increasing costs. Weak enforcement of EAC trade agreements limits seamless market access. (6, 51)
-Marginalization &amp; Exclusion Risks: Women and youth face barriers in accessing land, finance, and market opportunities. Male-dominated leadership structures may resist gender-inclusive honey cooperatives. (6, 51)
-Peacebuilding &amp; Mediation Gaps: While cross-border peace efforts have reduced large-scale raids, inter-community tensions persist. Beekeeping can support cooperative trade models, but requires local buy-in. (4, 49, 50)</t>
+Land and water access disputes among groups (notably in Rupa, Kiwawa, and Alale) can escalate during dry seasons, disrupting animal movement and undermining efforts to standardize breeding and vaccination calendars across communities. (28)
+Cross-border illegal networks smuggling drugs and livestock, particularly around Alale and Amudat, erode trust in veterinary products and formal services. This threatens the viability of franchised vet models and public-private coordination efforts. (27)</t>
+  </si>
+  <si>
+    <t>Investors must navigate parallel governance structures (traditional councils and formal governments) that often conflict, potentially slowing or derailing project approvals and execution​. (47)
+Resource-based tensions (especially over land and water pose risks of local disputes, particularly if warehouse or infrastructure investments are seen to benefit one group over another. (47)
+Traditional norms and systemic discrimination limit women’s participation in formal trade and land ownership, risking the entrenchment of gender inequality unless proactively addressed. (6, 47)
+Inconsistent trade policies, sudden export bans (e.g., maize), and bureaucratic hurdles between Uganda and Kenya cause volatility and reduce trust among traders, undermining the business model's stability. (6, 27, 31, 32)
+While peace initiatives have improved stability, business scalability still hinges on ongoing support from peace actors. Without continued mediation, localized tensions could escalate and affect trade. (4, 55, 56)</t>
+  </si>
+  <si>
+    <t>Dominant trader networks and elite capture of livestock markets often exclude smallholders and women, leading to unequal benefits and reduced uptake of formal feed distribution channels. (54)
+Weak local governance structures raise operational costs. Investors must navigate informal power networks to establish secure trade routes. (51)
+Land needed for fodder cultivation or feed storage is subject to overlapping claims, especially in areas with weak land governance, raising risks of contestation and project delays. (54)
+Women have limited access to decision-making and land, which constrains their participation in fodder production and cooperative ownership, unless specific inclusion strategies are pursued. (6, 35)
+Weak harmonization of trade and veterinary regulations between Uganda and Kenya hampers the movement of livestock and feed, increasing transaction costs and reducing the competitiveness of feed enterprises. (6, 12, 13)</t>
+  </si>
+  <si>
+    <t>Land and water access disputes affect beekeeping expansion. Traditional leaders control resource allocation, requiring engagement to secure sustainable production sites. (51)
+Local governance structures may be weak, raising operational costs. Investors must navigate informal power networks to establish secure trade routes. (51)
+Cross-border honey trade faces regulatory inconsistencies, fluctuating tariffs, and informal taxation, increasing costs. Weak enforcement of EAC trade agreements limits seamless market access. (6, 51)
+Women and youth face barriers in accessing land, finance, and market opportunities. Male-dominated leadership structures may resist gender-inclusive honey cooperatives. (6, 51)
+While cross-border peace efforts have reduced large-scale raids, inter-community tensions persist. Beekeeping can support cooperative trade models, but requires local buy-in. (4, 49, 50)</t>
   </si>
   <si>
     <t>Competing claims between clans or communities over control of land and sacred sites may create disputes, halting tourism development or threatening community cohesion. (43)
-Land and water access disputes among clans (notably in Rupa, Kiwawa, and Alale) can escalate during dry seasons, disrupting animal movement and undermining efforts to standardize breeding and vaccination calendars across communities. (28)
 Without safeguards, men may dominate tourism revenues and decision-making, marginalizing women from key leadership and income-generating roles in tourism. (44)
 While security has improved, unresolved grievances in hotspots could destabilize cross-border tourism efforts if conflict resurfaces or is politically manipulated. (41, 42)</t>
   </si>
   <si>
     <t>Elite capture of livestock and dairy value chains risks concentrating benefits among politically connected actors, marginalizing pastoralist producers and limiting inclusive market development. (3, 4)
-Contestation over land and water access between clans, ethnic groups, and cross-border communities can disrupt dairy infrastructure siting and trigger disputes over grazing and water rights. (3, 4, 27)
+Contestation over land and water access between ethnic groups and cross-border communities can disrupt dairy infrastructure siting and trigger disputes over grazing and water rights. (3, 4, 27)
 Weak enforcement of cooperative governance standards can erode trust in collective dairy ventures. Local power brokers may influence cooperative boards, skewing benefits away from smallholders. (52, 53, 54)
 Women face exclusion from land ownership and decision-making in livestock cooperatives, limiting their ability to engage in value-added dairy processing or benefit from financing and training. (6, 27, 54)
 Insufficient coordination between peacebuilding actors and economic programs creates disconnects between conflict resolution efforts and investment in dairy livelihoods that could help sustain peace dividends. (54, 55)</t>
   </si>
   <si>
-    <t>Elite capture: In both Karamoja and West Pokot, some cooperatives are influenced by local elites or political figures, which can distort loan allocation, exclude marginalized groups, and reduce trust in cooperative-led finance models. (47)
-Gender exclusion from financial decision-making: Despite women’s active role in trade and savings groups, they often lack formal decision-making power in cooperatives or SACCO boards, limiting their access to larger loans and shaping products that do not meet their needs. (6, 48)
-Weak cross-border institutional coordination: Differing regulatory frameworks, licensing rules, and trade policies between Uganda and Kenya create friction that undermines the scalability of cross-border SACCO networks and limits fintech partnerships across the border. (25, 48)
-Local tensions over access to land and resources: Competition over grazing land, markets, and water points, especially during dry seasons, can strain relationships among trading groups, potentially disrupting loan repayment and undermining cooperative cohesion. (25, 45, 46)</t>
-  </si>
-  <si>
-    <t>Elite Capture of Livestock Trade: Dominant trader networks and political elites often control livestock markets, pricing, and trade routes, limiting fair access for smallholders and reducing equitable benefit-sharing from processing investments.  (24, 35, 60)
-Customary vs. Formal Land Tenure Tensions:
+    <t>Some cooperatives are influenced by local elites, which can distort loan allocation, exclude marginalized groups, and reduce trust in cooperative-led finance models. (47)
+Despite women’s active role in trade and savings groups, they often lack formal decision-making power in cooperatives or SACCO boards, limiting their access to larger loans and shaping products that do not meet their needs. (6, 48)
+Differing regulatory frameworks, licensing rules, and trade policies between Uganda and Kenya create friction that undermines the scalability of cross-border SACCO networks and limits fintech partnerships across the border. (25, 48)
+Competition over grazing land, markets, and water points, especially during dry seasons, can strain relationships among trading groups, potentially disrupting loan repayment and undermining cooperative cohesion. (25, 45, 46)</t>
+  </si>
+  <si>
+    <t>Dominant trader networks and elite capture of livestock markets affect pricing and trade routes, limiting fair access for smallholders and reducing equitable benefit-sharing from processing investments.  (24, 35, 60)
 Processing infrastructure requires land access, but overlapping customary claims and unclear legal frameworks may trigger disputes or delays, particularly where land is communally owned or contested across borders. (24, 25, 60)
-Exclusion of Women from Livestock Decision-Making:
 Despite women’s significant role in meat processing and trade, male-dominated leadership in cooperatives and markets can sideline women’s participation in formal business opportunities and limit inclusive benefit. (6, 24, 25)
-Borderland Trade Bureaucracy and Informality:
-Inefficient or inconsistent enforcement of cross-border trade rules, bribes, and licensing confusion create unpredictability and discourage investment, particularly in formal, export-oriented processing facilities.  (6, 24, 35)
-Weak Mediation and Conflict Resolution Capacity:
+Inefficient or inconsistent enforcement of cross-border trade rules create unpredictability and discourage investment, particularly in formal, export-oriented processing facilities.  (6, 24, 35)
 Limited government capacity to facilitate inter-community peacebuilding or enforce livestock theft compensation laws increases tensions and hampers collaboration across ethnic or cross-border producer groups. (33, 60)</t>
   </si>
   <si>
@@ -1793,38 +1812,37 @@
   </si>
   <si>
     <t>Uneven influence of local elites and livestock market actors can distort service delivery, especially where access to vet inputs or bulls is mediated through patronage networks, limiting equity and participation of marginalized groups. (27, 52)
-Land and water access disputes among clans (notably in Rupa, Kiwawa, and Alale) can escalate during dry seasons, disrupting animal movement and undermining efforts to standardize breeding and vaccination calendars across communities. (28)
 Low female participation in livestock decision-making reduces the adoption of services such as AI and vet care, especially where extension programs are not gender-sensitive or fail to include women in CAHW roles or cooperative governance. (6, 27)
 Fragmentation of peacebuilding efforts and weak enforcement of grazing or livestock mobility agreements limit trust and cooperation across the border, constraining opportunities for cross-border animal health initiatives or shared breeding programs. (53)
 Lack of coordination between Uganda and Kenya’s veterinary authorities on drug standards, disease surveillance, and livestock movement undermines harmonization, raising costs for private actors and limiting service effectiveness in cross-border zones. (24, 28)</t>
   </si>
   <si>
-    <t>Inclusive pricing and leasing models: Offer subsidized or tiered pricing for storage access to ensure participation by smallholders, women, and marginalized traders, reducing market exclusion risks.
-Engaging Traditional &amp; Political Actors: Partner with traditional elders, women’s groups, and local councils to align honey production with existing land-use practices, securing long-term production sites.
-Security coordination and early warning: Partner with local security forces and early warning networks to monitor conflict patterns, adjust logistics, and safeguard storage and transport routes.
-Community land agreements: Use participatory land use planning and local mediation to ensure site selection is conflict-sensitive and perceived as equitable by all communities. 
-Policy engagement and advocacy: Work with trade associations and local governments to harmonize regulations, reduce cross-border barriers, and advocate for consistent trade policy enforcement.
-Gender-responsive programming: Integrate training, financial inclusion, and leadership opportunities for women into facility operations to address gender disparities and boost impact.</t>
-  </si>
-  <si>
-    <t>Foster inclusive market governance: Support cooperative-led feed aggregation and distribution to reduce elite capture, ensure price transparency, and enhance participation of women and marginalized producers.
-Secure land-use agreements: Establish formal land access MoUs with local authorities and elders for feed production zones, backed by participatory land mapping to prevent tenure-related disputes and conflicts.
-Mainstream gender in feed value chains: Prioritize training, ownership, and leadership roles for women in feed cooperatives, offer tailored microfinance, and integrate gender safeguards into all production and governance structures.
-Strengthen cross-border policy harmonization: Collaborate with EAC and IGAD platforms to align veterinary, trade, and taxation protocols on animal feed inputs and outputs, reducing regulatory barriers and enhancing scalability.
-Invest in peace dividends through enterprise: Link feed enterprises to conflict prevention efforts by employing at-risk youth, facilitating intergroup cooperatives, and locating infrastructure in shared grazing areas to promote joint stewardship.</t>
-  </si>
-  <si>
-    <t>Enhancing Value Chain Resilience: Establish bulk storage and processing hubs in secure zones, allowing beekeepers to aggregate, process, and store honey safely, mitigating price volatility.
-Engaging Traditional &amp; Political Actors: Partner with traditional elders, women’s groups, and local councils to align honey production with existing land-use practices, securing long-term production sites.
-Security Partnerships &amp; Risk Management: Collaborate with local security forces, peace committees, and community-based protection units to safeguard honey hubs and trade routes against theft and extortion.
-Gender-Inclusive Economic Models: Design women-led cooperatives with access to finance, training, and equipment, ensuring their participation in honey processing and marketing.
-Conflict-Sensitive Value Chain Development: Support cross-border beekeeping cooperatives to foster economic interdependence between Pokot, Karamojong, and Turkana communities, reducing tensions.</t>
-  </si>
-  <si>
-    <t>Build inclusive, community-led governance models: Ensure transparent decision-making and fair benefit-sharing through tourism associations with strong representation of women and marginalized groups.
-Formalize land and site-use agreements early: Engage elders, local leaders, and district authorities in securing MOUs for tourism sites to prevent disputes and ensure broad-based legitimacy.
-Integrate peacebuilding into tourism branding: Link tourism development to cultural festivals, reconciliation events, and heritage preservation to reinforce its role in promoting peace and stability.
-Collaborate with local security and emergency services: Establish joint protocols for tourism safety across border districts and train local response teams to build visitor confidence and investor trust.</t>
+    <t>Offer subsidized or tiered pricing for storage access to ensure participation by smallholders, women, and marginalized traders, reducing market exclusion risks.
+Partner with traditional elders, women’s groups, and local councils to align production with existing land-use practices, securing long-term production sites.
+Partner with local security forces and early warning networks to monitor conflict patterns, adjust logistics, and safeguard storage and transport routes.
+Use participatory land use planning and local mediation to ensure site selection is conflict-sensitive and perceived as equitable by all communities. 
+Work with trade associations and local governments to harmonize regulations, reduce cross-border barriers, and advocate for consistent trade policy enforcement.
+Integrate training, financial inclusion, and leadership opportunities for women into facility operations to address gender disparities and boost impact.</t>
+  </si>
+  <si>
+    <t>Support cooperative-led feed aggregation and distribution to reduce elite capture, ensure price transparency, and enhance participation of women and marginalized producers.
+Establish formal land access MoUs with local authorities and elders for feed production zones, backed by participatory land mapping to prevent tenure-related disputes and conflicts.
+Prioritize training, ownership, and leadership roles for women in feed cooperatives, offer tailored microfinance, and integrate gender safeguards into all production and governance structures.
+Collaborate with EAC and IGAD platforms to align veterinary, trade, and taxation protocols on animal feed inputs and outputs, reducing regulatory barriers and enhancing scalability.
+Link feed enterprises to conflict prevention efforts by employing at-risk youth, facilitating intergroup cooperatives, and locating infrastructure in shared grazing areas to promote joint stewardship.</t>
+  </si>
+  <si>
+    <t>Establish bulk storage and processing hubs in secure zones, allowing beekeepers to aggregate, process, and store honey safely, mitigating price volatility.
+Partner with traditional elders, women’s groups, and local councils to align honey production with existing land-use practices, securing long-term production sites.
+Collaborate with local security forces, peace committees, and community-based protection units to safeguard honey hubs and trade routes against theft and extortion.
+Design women-led cooperatives with access to finance, training, and equipment, ensuring their participation in honey processing and marketing.
+Support cross-border beekeeping cooperatives to foster economic interdependence between Pokot, Karamojong, and Turkana communities, reducing tensions.</t>
+  </si>
+  <si>
+    <t>Ensure transparent decision-making and fair benefit-sharing through tourism associations with strong representation of women and marginalized groups.
+Engage elders, local leaders, and district authorities in securing MOUs for tourism sites to prevent disputes and ensure broad-based legitimacy.
+Link tourism development to cultural festivals, reconciliation events, and heritage preservation to reinforce its role in promoting peace and stability.
+Establish joint protocols for tourism safety across border districts and train local response teams to build visitor confidence and investor trust.</t>
   </si>
   <si>
     <t>Establish inclusive cooperatives with transparent governance structures to minimize elite capture and ensure fair benefit distribution to marginalized producers, especially women and youth.
@@ -1834,30 +1852,25 @@
 Link peacebuilding and economic programming by engaging development partners and government to align conflict-sensitive investment planning with local mediation and reconciliation efforts.</t>
   </si>
   <si>
-    <t>Build inclusive governance in SACCOs: Ensure fair representation of women and marginalized groups on cooperative boards and loan committees to reduce elite capture, enhance trust, and align products with diverse user needs.
-Develop cross-border regulatory harmonization: Support government dialogue under EAC and IGAD frameworks to align licensing, digital KYC norms, and cross-border loan recovery rules, enabling SACCO and fintech models to operate across the border.
-Bundle financial products with conflict sensitivity: Integrate conflict analysis and peacebuilding into loan targeting by coordinating with local peace committees and designing repayment terms that factor in seasonal mobility and market disruptions.
-Use blended finance to de-risk early stages: Combine grants and concessional capital with risk-sharing facilities (e.g., guarantees) to crowd in private banks and fintechs, reducing hesitation to lend in underserved or insecure areas.
-Invest in community-based financial literacy: Partner with trusted local actors to deliver training in local languages on group savings, responsible borrowing, and digital finance, building resilience against shocks and predatory lenders.</t>
-  </si>
-  <si>
-    <t>Inclusive Cooperative Models:
-Strengthen livestock cooperatives with transparent governance and targeted inclusion of women and youth, ensuring fair participation, price negotiation power, and community ownership of processing initiatives.
-Integrated Security Partnerships:
+    <t>Ensure fair representation of women and marginalized groups on cooperative boards and loan committees to reduce elite capture, enhance trust, and align products with diverse user needs.
+Support government dialogue under EAC and IGAD frameworks to align licensing, digital KYC norms, and cross-border loan recovery rules, enabling SACCO and fintech models to operate across the border.
+Integrate conflict analysis and peacebuilding into loan targeting by coordinating with local peace committees and designing repayment terms that factor in seasonal mobility and market disruptions.
+Combine grants and concessional capital with risk-sharing facilities (e.g., guarantees) to crowd in private banks and fintechs, reducing hesitation to lend in underserved or insecure areas.
+Partner with trusted local actors to deliver training in local languages on group savings, responsible borrowing, and digital finance, building resilience against shocks and predatory lenders.</t>
+  </si>
+  <si>
+    <t>Strengthen livestock cooperatives with transparent governance and targeted inclusion of women and youth, ensuring fair participation, price negotiation power, and community ownership of processing initiatives.
 Coordinate with local governments and cross-border peace committees to protect livestock corridors and processing facilities, while investing in conflict early warning systems and livestock theft response mechanisms.
-Land Access Agreements:
 Establish formal land use agreements with customary authorities and local governments before construction, using participatory dialogue and compensation frameworks to reduce tenure-related conflict risks.
-Streamlined Cross-Border Trade Facilitation:
 Advocate for harmonized certification and reduced bureaucracy via EAC and IGAD frameworks; support trader cooperatives to engage with border officials and use Simplified Trade Regime (STR) channels.
-Public-Private Peacebuilding Investments:
 Pair abattoir investments with local development initiatives (e.g., water access, veterinary outreach) to build goodwill across ethnic lines and reinforce government legitimacy in underserved areas.</t>
   </si>
   <si>
-    <t>Partner with trusted cooperatives and peace committees: Leveraging local institutions helps build trust, facilitates inclusive outreach, and reduces exposure to elite capture or conflict over benefits.
-Blend community engagement with flexible financing: Use SACCOs and local saving groups to deliver solar and processing tech with adapted repayment models and shared ownership, boosting local buy-in.
-Ensure gender-inclusive design and governance: Integrate women in training, ownership models, and leadership of cooperatives to enhance equity, social stability, and long-term sustainability.
-Use mobile and modular systems to reduce risk exposure: Deploy portable solar and agro-processing solutions to avoid overconcentration of assets in conflict-prone areas and maintain flexibility.
-Support local dispute resolution platforms: Invest in strengthening cross-border peace committees and livestock route mediation efforts to reduce disruption risks to trade and infrastructure.</t>
+    <t>Leveraging local institutions helps build trust, facilitates inclusive outreach, and reduces exposure to elite capture or conflict over benefits.
+Use SACCOs and local saving groups to deliver solar and processing tech with adapted repayment models and shared ownership, boosting local buy-in.
+Integrate women in training, ownership models, and leadership of cooperatives to enhance equity, social stability, and long-term sustainability.
+Deploy portable solar and agro-processing solutions to avoid overconcentration of assets in conflict-prone areas and maintain flexibility.
+Invest in strengthening cross-border peace committees and livestock route mediation efforts to reduce disruption risks to trade and infrastructure.</t>
   </si>
   <si>
     <t>Build cross-border coordination platforms between Kenyan and Ugandan veterinary authorities to harmonize standards, disease surveillance, and input regulation, reducing cost and uncertainty for private providers.
@@ -1892,11 +1905,10 @@
 Public-Private Partnership: KVDA collaborates with over six beekeeping cooperative societies in West Pokot and Baringo counties, purchasing honey for processing, thereby supporting local producers and enhancing the honey value chain. (45)</t>
   </si>
   <si>
-    <t xml:space="preserve">Private sector: Kara-Tunga Arts &amp; Tours
+    <t>Private sector: Kara-Tunga Arts &amp; Tours
 Government: County Government of West Pokot, Government of Uganda's Ministry for Karamoja Affairs, Ministry of Tourism, Wildlife and Antiquities (Uganda), Kenya Tourism Board
 Multilaterals: United Nations Development Programme (UNDP), Intergovernmental Authority on Development (IGAD)
-Non-Profit: Karamoja Development Forum (KDF)
-Public-Private Partnership: </t>
+Non-Profit: Karamoja Development Forum (KDF)</t>
   </si>
   <si>
     <t>Private sector: Lelan Cooperative, Sioyi Cooperative, Brookside Dairy Limited, Pearl Dairy Farms Limited
@@ -1907,7 +1919,7 @@
 Another flagship PPP is the Dairy Nourishes Africa (DNA) initiative, which aims to transform the African dairy industry by leveraging private sector investment alongside public support. It focuses on empowering local farmers, strengthening dairy cooperatives, and facilitating sustainable value addition across the region. (56, 57)</t>
   </si>
   <si>
-    <t>Private sector: Stanbic Bank, PostBank, Centenary Bank, Equity Bank, Standard Chartered Bank, Savings and Credit Cooperative Organizations (SACCOs)
+    <t>Private sector: Stanbic Bank, PostBank, Centenary Bank, Equity Bank, Standard Chartered Bank, Partner credit, 4G Capital, Platinum, Simple Pay, BRAC, Savings and Credit Cooperative Organizations (SACCOs)
 Government: County Government of West Pokot, Government of Uganda's Ministry for Karamoja Affairs, Microfinance Support Centre (MSC) Uganda
 Multilaterals: World Bank, European Investment Bank (EIB)
 Non-Profit: Village Enterprise, SYPO
@@ -2071,7 +2083,9 @@
 53) Netherlands Enterprise Agency (RVO) – Agricultural Counsellor Kenya. (2021). VAT and Agriculture in Kenya: Recent Law Changes. Retrieved from: https://www.agroberichtenbuitenland.nl/landeninformatie/kenia/achtergrond/latest-developments/vat-and-agriculture-in-kenya-recent-law-changes
 54) AgriFI Kenya Challenge Fund. (n.d.). About the AgriFI Kenya Challenge Fund. Retrieved from: https://agrifichallengefund.org/about-the-agrifi-kenya-challenge-fund/
 55) Gray, S., Sundal, M., Wiebusch, B., Little, M., Leslie, P., &amp; Pike, I. (2003). Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists. Current Anthropology. Retrieved from: https://www.journals.uchicago.edu/doi/full/10.1086/377669
-56) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.</t>
+56) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
+57) West Pokot Crops Statistics, 2019-2023, shared by the Chamber of Commerce in West Pokot.
+58) Deutsche Welle (2013). Women take over Kenya's farming sector.  https://www.dw.com/en/women-take-over-kenyas-farming-sector/a-16716322</t>
   </si>
   <si>
     <t>23) Interview with public district officers in Moroto and West Pokot
@@ -2142,10 +2156,12 @@
 49) Gray, S., Sundal, M., Wiebusch, B., Little, M. A., Leslie, P. W., &amp; Pike, I. L. (2003). Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists. Current Anthropology, 44(S5), S3–S30. https://www.journals.uchicago.edu/doi/full/10.1086/377669
 50) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
 51) USAID. (2023). Applied Political Economy Analysis for the Karamoja Cluster.
-52) Intergovernmental Authority on Development (IGAD). (2019). Mapping of Actors in the Karamoja Cluster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13) Interview with public district officers in Moroto and West Pokot
+52) Intergovernmental Authority on Development (IGAD). (2019). Mapping of Actors in the Karamoja Cluster.
+53) West Pokot Crops Statistics, 2019-2023, shared by the Chamber of Commerce in West Pokot. 
+54) Deutsche Welle (2013). Women take over Kenya's farming sector.  https://www.dw.com/en/women-take-over-kenyas-farming-sector/a-16716322</t>
+  </si>
+  <si>
+    <t>13) Interview with public district officers in Moroto and West Pokot
 14) African Wildlife Foundation (AWF). Koija Starbeds Ecolodge: A Case Study in Community-Based Ecotourism. Nairobi: AWF, n.d. Available at: https://www.awf.org/sites/default/files/media/Resources/Books%20and%20Papers/Koija_Starbeds_Ecolodge_Case_study.pdf
 15) White, R. Conservation, Development and Tourism in a Transboundary Protected Area: The Case of the Mount Elgon Region. PhD Thesis, University of York, 2016. Available at: https://etheses.whiterose.ac.uk/id/eprint/15501/7/White_Rose_LJ517.pdf
 16) Onyango, J. &amp; Nthiga, R. Sustainable Tourism in Kenya’s Coast: Leveraging Green Tourism, Community-Based Initiatives and Local Empowerment through the Lens of Dependence Theory. ResearchGate, 2024. Available at: https://www.researchgate.net/publication/384445385_Sustainable_Tourism_in_Kenya%27s_Coast_Leveraging_Green_Tourism_Community-Based_Initiatives_and_Local_Empowerment_through_the_Lens_of_Dependence_Theory
@@ -2153,7 +2169,7 @@
 18) Interview with the manager of a large hotel in Moroto
 19) Interview with private sector actor in the tourism industry in Karamoja
 20) Estimations based on interview data with tourism actors in the IOA space and benchmark regional studies. 
-21) Interview with Kara-Tunga Adventure &amp; Cultural Tours
+21) Interview with private company delivering tourism services in karamoja
 22) Interview with National Revenue Authorities (Kenya and Uganda)
 23) Interviews with main commercial banks in West Pokot and Karamoja
 24) Republic of Uganda. Uganda Tourism Development Master Plan 2014–2024. Kampala: Ministry of Tourism, Wildlife and Antiquities, 2014.
@@ -2173,7 +2189,13 @@
 41) Gray, S., Sundal, M., Wiebusch, B., Little, M. A., Leslie, P. W., &amp; Pike, I. L. (2003). “Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists”. Current Anthropology, 44(S5), S3–S30. Retrieved from: https://www.journals.uchicago.edu/doi/full/10.1086/377669
 42) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
 43) USAID. (2023). Applied Political Economy Analysis for the Karamoja Cluster. Washington, DC: USAID.
-44) Interview with cross-border trade associations. </t>
+44) Interview with cross-border trade associations. 
+45) World Bank database.  https://data.worldbank.org/
+46) Tourism Regulatory Authority Regulations 2014. Tourism Regulatory Authority. Republic of Kenya.  https://eregulations.invest.go.ke/media/Tourism%20Act%20Authority%20Regulations%202014.pdf
+47) US Department of State (2020). 2020 Investment Climate Statements: Kenya.  https://www.state.gov/reports/2020-investment-climate-statements/kenya/
+48) Riungu Koome, G., Kiprutto, N., Kibe, J. and Kiama, F.W. (2013). Gender Representation in Kenya’s Hospitality Industry: A Connection to Tourism Entrepreneurial Aptitude.  https://core.ac.uk/download/pdf/234696749.pdf
+49) Ministry of Tourism (2020). Draft Revised National Tourism Policy 2020 On Enhancing Sustainable Tourism In Kenya. Republic of Kenya.  https://africacheck.org/wp-content/uploads/2020/10/Kenya-Tourism-Policy-May-2020-Draft.pdf
+50) PwC analysis based on Prof. A. Damodaran data, 2020.</t>
   </si>
   <si>
     <t>23) Interview with public district officers in Moroto and West Pokot
@@ -2289,7 +2311,7 @@
 66) International Livestock Research Institute (ILRI). (2023). New Abattoir to Improve Access to Safe and Affordable Pork in Uganda. Retrieved from: https://www.ilri.org/news/new-abattoir-improve-access-safe-and-affordable-pork-uganda</t>
   </si>
   <si>
-    <t xml:space="preserve">17) Interview with public district officers in Moroto and West Pokot
+    <t>17) Interview with public district officers in Moroto and West Pokot
 18) Interview with Foundation supporting access to finance for entrepreneurs in West Pokot
 19) Interviews with main commercial banks in Moroto
 20) Interviews with private renewable energy actor in West Pokot
@@ -2316,7 +2338,10 @@
 44) Gray, S., Sundal, M., Wiebusch, B., Little, M. A., Leslie, P. W., &amp; Pike, I. L. (2003). “Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists”. Current Anthropology, 44(S5), S3–S30. Retrieved from: https://www.journals.uchicago.edu/doi/full/10.1086/377669
 45) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
 46) USAID. (2023). Applied Political Economy Analysis for the Karamoja Cluster. Washington, DC: USAID.
-47) Interview with cross-border trade associations. </t>
+47) Interview with cross-border trade associations. 
+48) US Agency for International Aid (2019). Off-Grid Solar Market Assessment - Kenya. Power Africa Off-grid Project.
+49) National Planning Authority. National Development Plan III (NDPIII) 2020/21 – 2024/25
+50) Mokveld, K. and von Eije (RVO.nl), S. (2019). Final Energy report Uganda.  https://www.rvo.nl/sites/default/files/2019/02/Final-Energy-report-Uganda.pdf</t>
   </si>
   <si>
     <t>23) Interview with public district officers in Moroto and West Pokot
@@ -2357,31 +2382,31 @@
     <t>image</t>
   </si>
   <si>
+    <t>image2.png</t>
+  </si>
+  <si>
+    <t>image4.png</t>
+  </si>
+  <si>
     <t>image1.png</t>
   </si>
   <si>
-    <t>image2.png</t>
-  </si>
-  <si>
-    <t>image4.png</t>
+    <t>image13.png</t>
+  </si>
+  <si>
+    <t>image7.png</t>
+  </si>
+  <si>
+    <t>image9.png</t>
   </si>
   <si>
     <t>image5.png</t>
   </si>
   <si>
+    <t>image11.png</t>
+  </si>
+  <si>
     <t>image6.png</t>
-  </si>
-  <si>
-    <t>image7.png</t>
-  </si>
-  <si>
-    <t>image9.png</t>
-  </si>
-  <si>
-    <t>image11.png</t>
-  </si>
-  <si>
-    <t>image13.png</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2481,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2765,11 +2790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BI6" sqref="BI6"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BI20" sqref="BI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2944,7 +2972,7 @@
         <v>56</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
@@ -2982,133 +3010,133 @@
         <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AM2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AN2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AO2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AP2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AQ2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AR2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AT2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AU2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AV2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AX2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AY2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AZ2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="BA2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="BB2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="BC2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="BD2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="BE2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="BF2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
@@ -3146,133 +3174,133 @@
         <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AO3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AP3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AQ3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AR3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AS3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AT3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AU3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AV3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AW3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AX3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AY3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AZ3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="BA3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="BB3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="BC3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="BD3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BE3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="BF3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
@@ -3307,136 +3335,136 @@
         <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AN4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AO4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AP4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AQ4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AR4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AS4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AT4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AU4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AV4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AW4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AX4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AY4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AZ4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="BA4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BB4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="BC4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="BD4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="BE4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="BF4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
@@ -3471,130 +3499,130 @@
         <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AN5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AO5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AP5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AQ5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AR5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AT5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AU5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AV5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AW5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AY5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AZ5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="BA5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="BB5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="BC5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="BD5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="BE5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="BF5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
@@ -3632,133 +3660,130 @@
         <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AH6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AJ6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AN6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AO6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AP6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AQ6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AR6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AU6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AV6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AW6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AX6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AY6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AZ6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="BA6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="BB6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="BC6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="BD6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BE6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="BF6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
@@ -3793,136 +3818,136 @@
         <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AH7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AI7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AM7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AN7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AO7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AP7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AQ7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AR7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AT7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AU7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AV7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AW7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AX7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AY7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AZ7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="BA7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="BB7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="BC7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="BD7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="BE7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="BF7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
@@ -3960,133 +3985,133 @@
         <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AI8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AO8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AP8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AQ8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AR8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AT8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AU8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AV8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AW8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AX8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AY8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AZ8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="BA8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="BB8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="BC8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="BD8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BE8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="BF8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -4121,130 +4146,130 @@
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AM9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AN9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AP9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AQ9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AR9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AT9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AU9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AV9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AW9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AX9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AY9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AZ9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="BA9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="BB9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="BC9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="BD9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="BE9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="BF9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -4282,130 +4307,130 @@
         <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AK10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL10" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AP10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AQ10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AR10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AS10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AT10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AU10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AV10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AW10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AX10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AY10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AZ10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BA10" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BB10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="BC10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="BD10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BE10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="BF10" t="s">
         <v>415</v>

--- a/ioa_data.xlsx
+++ b/ioa_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C4F12-B615-F34D-8CFB-D958786F3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="22360" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="411">
   <si>
     <t>ioa_title</t>
   </si>
@@ -517,6 +511,9 @@
     <t>Private and cooperative providers offering fee-based vet care, input sales, and artificial insemination services can achieve 30–40% ROI. Mobile clinics and CAHW networks maintain low operational costs, while demand remains high. Examples from Kenya and Uganda show profitability from Year 2 with scaling potential by Year 3. (32)</t>
   </si>
   <si>
+    <t>Medium Term (5-10 years to generate return)</t>
+  </si>
+  <si>
     <t>Short Term (less than 5 years to generate return)</t>
   </si>
   <si>
@@ -1284,64 +1281,55 @@
     <t xml:space="preserve">What: Reduces post-harvest losses, boosts rural incomes, improves food security, and supports sustainable trade through better storage and aggregation.
 Who: Smallholders, women, youth, and cooperatives in Karamoja and West Pokot gain access to formal markets and value chains.
 Risk: Exclusion of vulnerable groups, underuse of infrastructure, or reliance on fossil energy could limit or offset intended social and environmental impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Increases livestock productivity, food security, and incomes through accessible, climate-resilient animal feed systems.
 Who: Targets pastoralists, agro-pastoralists, women, and youth in Karamoja and West Pokot.
 Risk: Low uptake, exclusion of marginalized groups, or environmental strain may limit inclusive and sustainable impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Increased income, food security, and climate resilience through modern beekeeping, processing, and market access, benefiting farmers while promoting biodiversity conservation.
 Who: Smallholder beekeepers, women traders, and pastoralist communities in West Pokot and Karamoja, with expanded regional trade benefiting Uganda and Kenya’s honey markets.
 Risk: Market volatility, climate shocks, gender exclusion, and resource conflicts may limit scale, profitability, and sustainability, reducing expected economic and environmental impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Generates jobs, promotes cultural heritage, and fosters peace through inclusive, community-led tourism in underserved borderland areas.
 Who: Youth, women, and remote communities in Karamoja–West Pokot gain direct income, skills, and visibility through tourism participation.
 Risk: Without inclusive design, tourism could exclude marginalized groups, strain natural resources, or spark local tensions over site control or benefits.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Improved dairy aggregation and processing will boost rural incomes, reduce milk loss, enhance food security, and enable access to nutritious dairy products.
 Who: Pastoralists, smallholder dairy farmers, cooperatives, women, and youth in Karamoja and West Pokot will benefit from stable markets and capacity building.
 Risk: Climate shocks, low milk supply, limited infrastructure, and exclusion of marginalized groups may limit sustained impact and equitable benefits.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Improved access to affordable and tailored financial services enhances income security, supports small business growth, and strengthens local trade systems.
 Who: Directly impacts informal traders, cooperatives, women and youth in Karamoja–West Pokot; indirectly supports broader community resilience.
 Risk: Low digital literacy, weak SACCO capacity, and limited trust in formal finance may reduce adoption and impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Increased incomes and improved food systems through local meat processing, market access, and livestock productivity in Karamoja and West Pokot.
 Who: Pastoralist producers, cooperatives, women in processing, local traders, and consumers across borderland areas.
 Risk: Conflict, exclusion of vulnerable groups, or poor infrastructure may limit participation and reduce economic or social impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Expands energy access for agri-processing, boosting productivity, reducing carbon emissions, and enhancing rural livelihoods.
 Who: Directly impacts cooperatives, processors, and trader groups in off-grid areas; indirectly benefits rural communities and smallholder farmers.
 Risk: Limited financing, supply chain gaps, and lack of technical capacity may delay adoption and reduce impact.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Improved livestock health and productivity, leading to enhanced food security, income, and resilience in pastoralist and agro-pastoralist communities.
 Who: Pastoralists, women, and youth in West Pokot and Karamoja, especially those underserved by formal veterinary systems.
 Risk: Low service uptake, gender exclusion, supply chain inefficiencies, and ecological strain from increased livestock densities.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t>C - Contribute to Solutions</t>
@@ -2378,42 +2366,12 @@
 54) University of Minnesota. (n.d.). ProgRESSVet-East Africa. Retrieved from: https://progressvet.umn.edu/progressvet-east-africa
 55) Global Alliance for Livestock Veterinary Medicines (GALVmed). (2021). Developing a Public-Private Partnership Framework for FMD in Eastern Africa. Retrieved from: https://www.galvmed.org/developing-a-public-private-partnership-framework-for-fmd-in-eastern-africa/</t>
   </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>image2.png</t>
-  </si>
-  <si>
-    <t>image4.png</t>
-  </si>
-  <si>
-    <t>image1.png</t>
-  </si>
-  <si>
-    <t>image13.png</t>
-  </si>
-  <si>
-    <t>image7.png</t>
-  </si>
-  <si>
-    <t>image9.png</t>
-  </si>
-  <si>
-    <t>image5.png</t>
-  </si>
-  <si>
-    <t>image11.png</t>
-  </si>
-  <si>
-    <t>image6.png</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2438,7 +2396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2461,27 +2419,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2490,21 +2434,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2542,7 +2478,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2576,7 +2512,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2611,10 +2546,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2787,19 +2721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BI20" sqref="BI20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2971,11 +2900,8 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3034,112 +2960,109 @@
         <v>141</v>
       </c>
       <c r="X2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AH2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AR2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AU2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AV2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AW2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AX2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AY2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AZ2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BA2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="BB2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BC2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="BD2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BE2" t="s">
-        <v>401</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3195,115 +3118,112 @@
         <v>133</v>
       </c>
       <c r="W3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AR3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AS3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AT3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AU3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AV3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AW3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AX3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AY3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AZ3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="BA3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="BB3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BC3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BD3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BE3" t="s">
-        <v>402</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3359,115 +3279,112 @@
         <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AR4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AS4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AU4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AV4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AW4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AX4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AY4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AZ4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="BA4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BB4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BC4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BD4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BE4" t="s">
-        <v>403</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3523,109 +3440,106 @@
         <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AH5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AU5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AV5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AW5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AX5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AY5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AZ5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BA5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BB5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BC5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BD5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BE5" t="s">
-        <v>404</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3681,112 +3595,109 @@
         <v>136</v>
       </c>
       <c r="W6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AE6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AH6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AR6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AT6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AU6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AV6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AW6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AX6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AY6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AZ6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BA6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BB6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="BC6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="BD6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BE6" t="s">
-        <v>405</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3842,115 +3753,112 @@
         <v>137</v>
       </c>
       <c r="W7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AR7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AT7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AU7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AV7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AW7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AY7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AZ7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="BA7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BB7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BC7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="BD7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BE7" t="s">
-        <v>406</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -4006,115 +3914,112 @@
         <v>138</v>
       </c>
       <c r="W8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AR8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AT8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AU8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AV8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AW8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AX8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AY8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AZ8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="BA8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BB8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BC8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="BD8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BE8" t="s">
-        <v>407</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -4170,109 +4075,106 @@
         <v>139</v>
       </c>
       <c r="W9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AR9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AT9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AV9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AW9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AX9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AY9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AZ9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="BA9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BB9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BC9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="BD9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BE9" t="s">
-        <v>408</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4328,112 +4230,109 @@
         <v>140</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AJ10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AR10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AT10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AU10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AV10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AW10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AY10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AZ10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BA10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BB10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BC10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="BD10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BE10" t="s">
-        <v>409</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/ioa_data.xlsx
+++ b/ioa_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B5EA4-C5D5-1E4E-9A1E-0913D19F4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="18860" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="421">
   <si>
     <t>ioa_title</t>
   </si>
@@ -2366,12 +2372,42 @@
 54) University of Minnesota. (n.d.). ProgRESSVet-East Africa. Retrieved from: https://progressvet.umn.edu/progressvet-east-africa
 55) Global Alliance for Livestock Veterinary Medicines (GALVmed). (2021). Developing a Public-Private Partnership Framework for FMD in Eastern Africa. Retrieved from: https://www.galvmed.org/developing-a-public-private-partnership-framework-for-fmd-in-eastern-africa/</t>
   </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>image2.png</t>
+  </si>
+  <si>
+    <t>image4.png</t>
+  </si>
+  <si>
+    <t>image1.png</t>
+  </si>
+  <si>
+    <t>image13.png</t>
+  </si>
+  <si>
+    <t>image6.png</t>
+  </si>
+  <si>
+    <t>image9.png</t>
+  </si>
+  <si>
+    <t>image5.png</t>
+  </si>
+  <si>
+    <t>image11.png</t>
+  </si>
+  <si>
+    <t>image7.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2396,7 +2432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2419,13 +2455,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2434,13 +2484,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2478,7 +2536,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2512,6 +2570,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2546,9 +2605,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2721,14 +2781,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BF16" sqref="BF16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,8 +2962,11 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="2" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3061,8 +3126,11 @@
       <c r="BE2" t="s">
         <v>402</v>
       </c>
+      <c r="BF2" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3222,8 +3290,11 @@
       <c r="BE3" t="s">
         <v>403</v>
       </c>
+      <c r="BF3" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3383,8 +3454,11 @@
       <c r="BE4" t="s">
         <v>404</v>
       </c>
+      <c r="BF4" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3538,8 +3612,11 @@
       <c r="BE5" t="s">
         <v>405</v>
       </c>
+      <c r="BF5" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3696,8 +3773,11 @@
       <c r="BE6" t="s">
         <v>406</v>
       </c>
+      <c r="BF6" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3857,8 +3937,11 @@
       <c r="BE7" t="s">
         <v>407</v>
       </c>
+      <c r="BF7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -4018,8 +4101,11 @@
       <c r="BE8" t="s">
         <v>408</v>
       </c>
+      <c r="BF8" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -4173,8 +4259,11 @@
       <c r="BE9" t="s">
         <v>409</v>
       </c>
+      <c r="BF9" t="s">
+        <v>419</v>
+      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4333,6 +4422,9 @@
       </c>
       <c r="BE10" t="s">
         <v>410</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
